--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Build Apps\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E98DF9-2CC1-4017-B77A-90178677D0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6197D6CB-BE64-491E-9E1C-56965014673E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A5C6CAF5-34CE-427B-965F-75A853BB2CF9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="29">
   <si>
     <t>Dissimilarity</t>
   </si>
@@ -78,23 +78,56 @@
     <t>Akurasi HSV</t>
   </si>
   <si>
-    <t>RGB - HSV - GLCM</t>
-  </si>
-  <si>
     <t>Maks. Akurasi</t>
   </si>
   <si>
-    <t>RGB - HSV - GLCM -PreProcessing Bacground- NORMALIZE</t>
+    <t>Normal Backrgound</t>
   </si>
   <si>
-    <t>RGB - HSV - GLCM -PreProcessing Bacground- NORMALIZE (Augmentasi 160/label)</t>
+    <t>White Background- NORMALIZE (l2)</t>
+  </si>
+  <si>
+    <t>Akurasi</t>
+  </si>
+  <si>
+    <t>Akurasi HSV + GLCM</t>
+  </si>
+  <si>
+    <t>Akurasi RGB + GLCM</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Akurasi GLCM</t>
+  </si>
+  <si>
+    <t>Skenario</t>
+  </si>
+  <si>
+    <t>3 Ciri</t>
+  </si>
+  <si>
+    <t>4 Ciri</t>
+  </si>
+  <si>
+    <t>2 Ciri</t>
+  </si>
+  <si>
+    <t>White Bacground- NORMALIZE (l2) - Augmentasi 160 data training/label</t>
+  </si>
+  <si>
+    <t>Without Roi - White Bacground- NORMALIZE (l2) - Augmentasi 160 data training/label</t>
+  </si>
+  <si>
+    <t>Without ROI - White Bacground- NORMALIZE (l2) - Augmentasi 160 data training/label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +178,14 @@
       <color rgb="FF006100"/>
       <name val="Poppins"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Poppins"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +231,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -330,8 +375,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -340,8 +568,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,25 +614,52 @@
     <xf numFmtId="2" fontId="6" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,35 +698,172 @@
     <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="16" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="18" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="19" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="20" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="24" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
     <cellStyle name="40% - Accent4" xfId="6" builtinId="43"/>
+    <cellStyle name="40% - Accent5" xfId="8" builtinId="47"/>
     <cellStyle name="40% - Accent6" xfId="7" builtinId="51"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
@@ -787,166 +1180,167 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6955E733-C703-4457-A14D-DC4A17A73E59}">
-  <dimension ref="B2:AA93"/>
+  <dimension ref="B2:AJ99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26:K30"/>
+    <sheetView tabSelected="1" topLeftCell="I74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K68" sqref="K68:K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="3.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="25" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="11" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.88671875" style="1"/>
+    <col min="24" max="24" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="N2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23"/>
+      <c r="AA2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="26"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="26"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="38"/>
-      <c r="M2" s="16" t="s">
+      <c r="N4" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="X2" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-    </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="AA4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="AB4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="15" t="s">
+      <c r="AC4" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,34 +1353,34 @@
       <c r="G5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="35"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="2" t="s">
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="30"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1012,18 +1406,15 @@
       <c r="J6" s="8">
         <v>0.7</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="31">
         <f>MAX(I6:J10)</f>
         <v>0.8</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>1</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>10</v>
+      <c r="O6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
@@ -1031,34 +1422,37 @@
       <c r="Q6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="3">
+      <c r="R6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="3">
         <v>1</v>
       </c>
-      <c r="T6" s="8">
+      <c r="U6" s="8">
         <v>0.65</v>
       </c>
-      <c r="U6" s="8">
+      <c r="V6" s="8">
         <v>0.7</v>
       </c>
-      <c r="V6" s="17">
-        <f>MAX(T6:U10)</f>
+      <c r="W6" s="16">
+        <f>MAX(U6:V10)</f>
         <v>0.75</v>
       </c>
-      <c r="X6" s="3">
+      <c r="AA6" s="3">
         <v>1</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="AC6" s="5">
         <v>0.6</v>
       </c>
-      <c r="AA6" s="5">
+      <c r="AD6" s="5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1084,15 +1478,12 @@
       <c r="J7" s="8">
         <v>0.7</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="M7" s="3">
+      <c r="K7" s="32"/>
+      <c r="N7" s="3">
         <v>2</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>10</v>
+      <c r="O7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>10</v>
@@ -1100,31 +1491,34 @@
       <c r="Q7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="3">
+      <c r="R7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="3">
         <v>2</v>
       </c>
-      <c r="T7" s="8">
+      <c r="U7" s="8">
         <v>0.65</v>
       </c>
-      <c r="U7" s="8">
+      <c r="V7" s="8">
         <v>0.75</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="X7" s="3">
+      <c r="W7" s="16"/>
+      <c r="AA7" s="3">
         <v>2</v>
       </c>
-      <c r="Y7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z7" s="5">
+      <c r="AB7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="5">
         <v>0.45</v>
       </c>
-      <c r="AA7" s="5">
+      <c r="AD7" s="5">
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1150,15 +1544,12 @@
       <c r="J8" s="8">
         <v>0.65</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="M8" s="3">
+      <c r="K8" s="32"/>
+      <c r="N8" s="3">
         <v>3</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>10</v>
+      <c r="O8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
@@ -1166,19 +1557,22 @@
       <c r="Q8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="3">
+      <c r="R8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="3">
         <v>3</v>
       </c>
-      <c r="T8" s="8">
+      <c r="U8" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U8" s="8">
+      <c r="V8" s="8">
         <v>0.65</v>
       </c>
-      <c r="V8" s="17"/>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1204,15 +1598,12 @@
       <c r="J9" s="8">
         <v>0.7</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="M9" s="3">
+      <c r="K9" s="32"/>
+      <c r="N9" s="3">
         <v>4</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>10</v>
@@ -1220,19 +1611,22 @@
       <c r="Q9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="3">
+      <c r="R9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="3">
         <v>4</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0.65</v>
       </c>
       <c r="U9" s="8">
         <v>0.65</v>
       </c>
-      <c r="V9" s="17"/>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="V9" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1258,15 +1652,12 @@
       <c r="J10" s="8">
         <v>0.65</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="M10" s="3">
+      <c r="K10" s="33"/>
+      <c r="N10" s="3">
         <v>5</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>10</v>
+      <c r="O10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>10</v>
@@ -1274,19 +1665,22 @@
       <c r="Q10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="3">
+      <c r="R10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="3">
         <v>5</v>
       </c>
-      <c r="T10" s="8">
+      <c r="U10" s="8">
         <v>0.7</v>
       </c>
-      <c r="U10" s="8">
+      <c r="V10" s="8">
         <v>0.65</v>
       </c>
-      <c r="V10" s="17"/>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1312,41 +1706,41 @@
       <c r="J11" s="10">
         <v>0.65</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="34">
         <f t="shared" ref="K11" si="0">MAX(I11:J15)</f>
         <v>0.75</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>6</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>10</v>
+      <c r="O11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="Q11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="3">
         <v>1</v>
       </c>
-      <c r="T11" s="10">
+      <c r="U11" s="10">
         <v>0.6</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="10">
         <v>0.65</v>
       </c>
-      <c r="V11" s="18">
-        <f t="shared" ref="V11" si="1">MAX(T11:U15)</f>
+      <c r="W11" s="17">
+        <f t="shared" ref="W11" si="1">MAX(U11:V15)</f>
         <v>0.65</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1372,35 +1766,35 @@
       <c r="J12" s="10">
         <v>0.65</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="M12" s="3">
+      <c r="K12" s="35"/>
+      <c r="N12" s="3">
         <v>7</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>10</v>
+      <c r="O12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="Q12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T12" s="3">
         <v>2</v>
       </c>
-      <c r="T12" s="10">
+      <c r="U12" s="10">
         <v>0.6</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="10">
         <v>0.65</v>
       </c>
-      <c r="V12" s="18"/>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1426,35 +1820,35 @@
       <c r="J13" s="10">
         <v>0.6</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="M13" s="3">
-        <v>8</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>10</v>
+      <c r="K13" s="35"/>
+      <c r="N13" s="3">
+        <v>8</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="3">
+      <c r="Q13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="3">
         <v>3</v>
       </c>
-      <c r="T13" s="10">
+      <c r="U13" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <v>0.6</v>
       </c>
-      <c r="V13" s="18"/>
-    </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -1480,35 +1874,35 @@
       <c r="J14" s="10">
         <v>0.5</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="M14" s="3">
+      <c r="K14" s="35"/>
+      <c r="N14" s="3">
         <v>9</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>10</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="Q14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3">
         <v>4</v>
       </c>
-      <c r="T14" s="10">
+      <c r="U14" s="10">
         <v>0.5</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="10">
         <v>0.6</v>
       </c>
-      <c r="V14" s="18"/>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -1534,35 +1928,35 @@
       <c r="J15" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="M15" s="3">
-        <v>10</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>10</v>
+      <c r="K15" s="36"/>
+      <c r="N15" s="3">
+        <v>10</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="Q15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T15" s="3">
         <v>5</v>
       </c>
-      <c r="T15" s="10">
+      <c r="U15" s="10">
         <v>0.45</v>
       </c>
-      <c r="U15" s="10">
+      <c r="V15" s="10">
         <v>0.65</v>
       </c>
-      <c r="V15" s="18"/>
-    </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>11</v>
       </c>
@@ -1588,41 +1982,41 @@
       <c r="J16" s="12">
         <v>0.65</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="37">
         <f t="shared" ref="K16" si="2">MAX(I16:J20)</f>
         <v>0.75</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>11</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="11"/>
       <c r="R16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="3">
         <v>1</v>
       </c>
-      <c r="T16" s="12">
+      <c r="U16" s="12">
         <v>0.7</v>
       </c>
-      <c r="U16" s="12">
+      <c r="V16" s="12">
         <v>0.65</v>
       </c>
-      <c r="V16" s="19">
-        <f t="shared" ref="V16" si="3">MAX(T16:U20)</f>
+      <c r="W16" s="18">
+        <f t="shared" ref="W16" si="3">MAX(U16:V20)</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -1648,35 +2042,35 @@
       <c r="J17" s="12">
         <v>0.65</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="M17" s="3">
+      <c r="K17" s="38"/>
+      <c r="N17" s="3">
         <v>12</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" s="11"/>
       <c r="R17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T17" s="3">
         <v>2</v>
       </c>
-      <c r="T17" s="12">
+      <c r="U17" s="12">
         <v>0.7</v>
       </c>
-      <c r="U17" s="12">
+      <c r="V17" s="12">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V17" s="19"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>13</v>
       </c>
@@ -1702,35 +2096,35 @@
       <c r="J18" s="12">
         <v>0.6</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="M18" s="3">
+      <c r="K18" s="38"/>
+      <c r="N18" s="3">
         <v>13</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O18" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="11"/>
       <c r="R18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T18" s="3">
         <v>3</v>
-      </c>
-      <c r="T18" s="12">
-        <v>0.6</v>
       </c>
       <c r="U18" s="12">
         <v>0.6</v>
       </c>
-      <c r="V18" s="19"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V18" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>14</v>
       </c>
@@ -1756,35 +2150,35 @@
       <c r="J19" s="12">
         <v>0.65</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="M19" s="3">
+      <c r="K19" s="38"/>
+      <c r="N19" s="3">
         <v>14</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="11"/>
       <c r="R19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="3">
         <v>4</v>
       </c>
-      <c r="T19" s="12">
+      <c r="U19" s="12">
         <v>0.7</v>
       </c>
-      <c r="U19" s="12">
+      <c r="V19" s="12">
         <v>0.65</v>
       </c>
-      <c r="V19" s="19"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>15</v>
       </c>
@@ -1810,35 +2204,35 @@
       <c r="J20" s="12">
         <v>0.65</v>
       </c>
-      <c r="K20" s="30"/>
-      <c r="M20" s="3">
+      <c r="K20" s="39"/>
+      <c r="N20" s="3">
         <v>15</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="11"/>
       <c r="R20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T20" s="3">
         <v>5</v>
       </c>
-      <c r="T20" s="12">
+      <c r="U20" s="12">
         <v>0.65</v>
       </c>
-      <c r="U20" s="12">
+      <c r="V20" s="12">
         <v>0.6</v>
       </c>
-      <c r="V20" s="19"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>16</v>
       </c>
@@ -1864,41 +2258,41 @@
       <c r="J21" s="14">
         <v>0.65</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="40">
         <f t="shared" ref="K21" si="4">MAX(I21:J25)</f>
         <v>0.8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="13"/>
       <c r="Q21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T21" s="3">
         <v>1</v>
-      </c>
-      <c r="T21" s="14">
-        <v>0.6</v>
       </c>
       <c r="U21" s="14">
         <v>0.6</v>
       </c>
-      <c r="V21" s="20">
-        <f t="shared" ref="V21" si="5">MAX(T21:U25)</f>
+      <c r="V21" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="W21" s="19">
+        <f t="shared" ref="W21" si="5">MAX(U21:V25)</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>17</v>
       </c>
@@ -1924,35 +2318,35 @@
       <c r="J22" s="14">
         <v>0.7</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="M22" s="3">
+      <c r="K22" s="41"/>
+      <c r="N22" s="3">
         <v>17</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="13"/>
       <c r="Q22" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T22" s="3">
         <v>2</v>
       </c>
-      <c r="T22" s="14">
+      <c r="U22" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U22" s="14">
+      <c r="V22" s="14">
         <v>0.7</v>
       </c>
-      <c r="V22" s="20"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W22" s="19"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>18</v>
       </c>
@@ -1978,35 +2372,35 @@
       <c r="J23" s="14">
         <v>0.7</v>
       </c>
-      <c r="K23" s="32"/>
-      <c r="M23" s="3">
+      <c r="K23" s="41"/>
+      <c r="N23" s="3">
         <v>18</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="13"/>
       <c r="Q23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T23" s="3">
         <v>3</v>
       </c>
-      <c r="T23" s="14">
+      <c r="U23" s="14">
         <v>0.6</v>
       </c>
-      <c r="U23" s="14">
+      <c r="V23" s="14">
         <v>0.65</v>
       </c>
-      <c r="V23" s="20"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>19</v>
       </c>
@@ -2032,35 +2426,35 @@
       <c r="J24" s="14">
         <v>0.65</v>
       </c>
-      <c r="K24" s="32"/>
-      <c r="M24" s="3">
+      <c r="K24" s="41"/>
+      <c r="N24" s="3">
         <v>19</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="13"/>
       <c r="Q24" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T24" s="3">
         <v>4</v>
       </c>
-      <c r="T24" s="14">
+      <c r="U24" s="14">
         <v>0.65</v>
       </c>
-      <c r="U24" s="14">
+      <c r="V24" s="14">
         <v>0.7</v>
       </c>
-      <c r="V24" s="20"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>20</v>
       </c>
@@ -2086,35 +2480,35 @@
       <c r="J25" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="M25" s="3">
+      <c r="K25" s="42"/>
+      <c r="N25" s="3">
         <v>20</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="13"/>
       <c r="Q25" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T25" s="3">
         <v>5</v>
-      </c>
-      <c r="T25" s="14">
-        <v>0.65</v>
       </c>
       <c r="U25" s="14">
         <v>0.65</v>
       </c>
-      <c r="V25" s="20"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V25" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="W25" s="19"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>21</v>
       </c>
@@ -2142,18 +2536,15 @@
       <c r="J26" s="6">
         <v>0.75</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="20">
         <f>MAX(I26:J30)</f>
         <v>0.8</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>21</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>10</v>
+      <c r="O26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>10</v>
@@ -2164,21 +2555,24 @@
       <c r="R26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T26" s="3">
         <v>1</v>
       </c>
-      <c r="T26" s="6">
+      <c r="U26" s="6">
         <v>0.6</v>
       </c>
-      <c r="U26" s="6">
+      <c r="V26" s="6">
         <v>0.65</v>
       </c>
-      <c r="V26" s="21">
-        <f t="shared" ref="V26" si="6">MAX(T26:U30)</f>
+      <c r="W26" s="20">
+        <f t="shared" ref="W26" si="6">MAX(U26:V30)</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>22</v>
       </c>
@@ -2206,15 +2600,12 @@
       <c r="J27" s="6">
         <v>0.7</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="M27" s="3">
+      <c r="K27" s="20"/>
+      <c r="N27" s="3">
         <v>22</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>10</v>
+      <c r="O27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>10</v>
@@ -2225,18 +2616,21 @@
       <c r="R27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T27" s="3">
         <v>2</v>
       </c>
-      <c r="T27" s="6">
+      <c r="U27" s="6">
         <v>0.6</v>
       </c>
-      <c r="U27" s="6">
+      <c r="V27" s="6">
         <v>0.7</v>
       </c>
-      <c r="V27" s="21"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W27" s="20"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>23</v>
       </c>
@@ -2264,15 +2658,12 @@
       <c r="J28" s="6">
         <v>0.65</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="M28" s="3">
+      <c r="K28" s="20"/>
+      <c r="N28" s="3">
         <v>23</v>
       </c>
-      <c r="N28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>10</v>
+      <c r="O28" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>10</v>
@@ -2283,18 +2674,21 @@
       <c r="R28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T28" s="3">
         <v>3</v>
-      </c>
-      <c r="T28" s="6">
-        <v>0.65</v>
       </c>
       <c r="U28" s="6">
         <v>0.65</v>
       </c>
-      <c r="V28" s="21"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V28" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="W28" s="20"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>24</v>
       </c>
@@ -2322,15 +2716,12 @@
       <c r="J29" s="6">
         <v>0.6</v>
       </c>
-      <c r="K29" s="21"/>
-      <c r="M29" s="3">
+      <c r="K29" s="20"/>
+      <c r="N29" s="3">
         <v>24</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>10</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="4" t="s">
         <v>10</v>
@@ -2341,18 +2732,21 @@
       <c r="R29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T29" s="3">
         <v>4</v>
       </c>
-      <c r="T29" s="6">
+      <c r="U29" s="6">
         <v>0.6</v>
       </c>
-      <c r="U29" s="6">
+      <c r="V29" s="6">
         <v>0.65</v>
       </c>
-      <c r="V29" s="21"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W29" s="20"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>25</v>
       </c>
@@ -2380,15 +2774,12 @@
       <c r="J30" s="6">
         <v>0.65</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="M30" s="3">
+      <c r="K30" s="20"/>
+      <c r="N30" s="3">
         <v>25</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>10</v>
+      <c r="O30" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P30" s="4" t="s">
         <v>10</v>
@@ -2399,118 +2790,167 @@
       <c r="R30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T30" s="3">
         <v>5</v>
       </c>
-      <c r="T30" s="6">
+      <c r="U30" s="6">
         <v>0.65</v>
       </c>
-      <c r="U30" s="6">
+      <c r="V30" s="6">
         <v>0.7</v>
       </c>
-      <c r="V30" s="21"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="W30" s="20"/>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="M34" s="16" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="N34" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="15" t="s">
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="AA34" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
+      <c r="AD34" s="22"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="23"/>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+      <c r="AF35" s="25"/>
+      <c r="AG35" s="25"/>
+      <c r="AH35" s="25"/>
+      <c r="AI35" s="25"/>
+      <c r="AJ35" s="26"/>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15" t="s">
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="K36" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="M36" s="15" t="s">
+      <c r="K36" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="O36" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O36" s="15" t="s">
+      <c r="P36" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15" t="s">
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="T36" s="15" t="s">
+      <c r="U36" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U36" s="15" t="s">
+      <c r="V36" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="V36" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
+      <c r="W36" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA36" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB36" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC36" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="27"/>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH36" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI36" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ36" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2523,30 +2963,48 @@
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="2" t="s">
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R37" s="2" t="s">
+      <c r="S37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="V37" s="15"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG37" s="27"/>
+      <c r="AH37" s="27"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -2572,18 +3030,15 @@
       <c r="J38" s="8">
         <v>0.85</v>
       </c>
-      <c r="K38" s="17">
+      <c r="K38" s="16">
         <f>MAX(I38:J42)</f>
         <v>0.85</v>
       </c>
-      <c r="M38" s="3">
+      <c r="N38" s="3">
         <v>1</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>10</v>
+      <c r="O38" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>10</v>
@@ -2591,22 +3046,54 @@
       <c r="Q38" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R38" s="7"/>
-      <c r="S38" s="3">
+      <c r="R38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="7"/>
+      <c r="T38" s="3">
         <v>1</v>
       </c>
-      <c r="T38" s="8">
+      <c r="U38" s="8">
         <v>0.6</v>
       </c>
-      <c r="U38" s="8">
+      <c r="V38" s="8">
         <v>0.65</v>
       </c>
-      <c r="V38" s="17">
-        <f>MAX(T38:U42)</f>
+      <c r="W38" s="16">
+        <f>MAX(U38:V42)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="AA38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="AI38" s="8">
+        <v>0.62</v>
+      </c>
+      <c r="AJ38" s="16">
+        <f>MAX(AH38:AI42)</f>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -2632,15 +3119,12 @@
       <c r="J39" s="8">
         <v>0.8</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="M39" s="3">
+      <c r="K39" s="16"/>
+      <c r="N39" s="3">
         <v>2</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>10</v>
+      <c r="O39" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P39" s="7" t="s">
         <v>10</v>
@@ -2648,19 +3132,48 @@
       <c r="Q39" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R39" s="7"/>
-      <c r="S39" s="3">
+      <c r="R39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" s="7"/>
+      <c r="T39" s="3">
         <v>2</v>
       </c>
-      <c r="T39" s="8">
+      <c r="U39" s="8">
         <v>0.5</v>
       </c>
-      <c r="U39" s="8">
+      <c r="V39" s="8">
         <v>0.6</v>
       </c>
-      <c r="V39" s="17"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W39" s="16"/>
+      <c r="AA39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH39" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="AI39" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="AJ39" s="16"/>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>3</v>
       </c>
@@ -2686,15 +3199,12 @@
       <c r="J40" s="8">
         <v>0.8</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="M40" s="3">
+      <c r="K40" s="16"/>
+      <c r="N40" s="3">
         <v>3</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
+      <c r="O40" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
@@ -2702,19 +3212,48 @@
       <c r="Q40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R40" s="7"/>
-      <c r="S40" s="3">
+      <c r="R40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S40" s="7"/>
+      <c r="T40" s="3">
         <v>3</v>
       </c>
-      <c r="T40" s="8">
+      <c r="U40" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U40" s="8">
+      <c r="V40" s="8">
         <v>0.65</v>
       </c>
-      <c r="V40" s="17"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W40" s="16"/>
+      <c r="AA40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH40" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="AI40" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="AJ40" s="16"/>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>4</v>
       </c>
@@ -2740,15 +3279,12 @@
       <c r="J41" s="8">
         <v>0.8</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="M41" s="3">
+      <c r="K41" s="16"/>
+      <c r="N41" s="3">
         <v>4</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>10</v>
+      <c r="O41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
@@ -2756,19 +3292,48 @@
       <c r="Q41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R41" s="7"/>
-      <c r="S41" s="3">
+      <c r="R41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="7"/>
+      <c r="T41" s="3">
         <v>4</v>
       </c>
-      <c r="T41" s="8">
+      <c r="U41" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U41" s="8">
+      <c r="V41" s="8">
         <v>0.7</v>
       </c>
-      <c r="V41" s="17"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W41" s="16"/>
+      <c r="AA41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH41" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="AI41" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="AJ41" s="16"/>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -2794,15 +3359,12 @@
       <c r="J42" s="8">
         <v>0.8</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="M42" s="3">
+      <c r="K42" s="16"/>
+      <c r="N42" s="3">
         <v>5</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>10</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
@@ -2810,19 +3372,48 @@
       <c r="Q42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="R42" s="7"/>
-      <c r="S42" s="3">
+      <c r="R42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S42" s="7"/>
+      <c r="T42" s="3">
         <v>5</v>
       </c>
-      <c r="T42" s="8">
+      <c r="U42" s="8">
         <v>0.65</v>
       </c>
-      <c r="U42" s="8">
+      <c r="V42" s="8">
         <v>0.7</v>
       </c>
-      <c r="V42" s="17"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W42" s="16"/>
+      <c r="AA42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH42" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="AI42" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="AJ42" s="16"/>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>6</v>
       </c>
@@ -2848,41 +3439,70 @@
       <c r="J43" s="10">
         <v>0.5</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="17">
         <f t="shared" ref="K43" si="7">MAX(I43:J47)</f>
         <v>0.5</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O43" s="9" t="s">
-        <v>10</v>
+      <c r="O43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="Q43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T43" s="3">
         <v>1</v>
       </c>
-      <c r="T43" s="10">
+      <c r="U43" s="10">
         <v>0.65</v>
       </c>
-      <c r="U43" s="10">
+      <c r="V43" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V43" s="18">
-        <f t="shared" ref="V43" si="8">MAX(T43:U47)</f>
+      <c r="W43" s="17">
+        <f>MAX(U43:V47)</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="AA43" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE43" s="9"/>
+      <c r="AF43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AI43" s="10">
+        <v>0.59</v>
+      </c>
+      <c r="AJ43" s="17">
+        <f t="shared" ref="AJ43" si="8">MAX(AH43:AI47)</f>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>7</v>
       </c>
@@ -2908,35 +3528,61 @@
       <c r="J44" s="10">
         <v>0.4</v>
       </c>
-      <c r="K44" s="18"/>
-      <c r="M44" s="3">
+      <c r="K44" s="17"/>
+      <c r="N44" s="3">
         <v>7</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="9" t="s">
-        <v>10</v>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="Q44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T44" s="3">
         <v>2</v>
       </c>
-      <c r="T44" s="10">
+      <c r="U44" s="10">
         <v>0.65</v>
       </c>
-      <c r="U44" s="10">
+      <c r="V44" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V44" s="18"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W44" s="17"/>
+      <c r="AA44" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH44" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="AI44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ44" s="17"/>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>8</v>
       </c>
@@ -2962,35 +3608,61 @@
       <c r="J45" s="10">
         <v>0.35</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="M45" s="3">
-        <v>8</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O45" s="9" t="s">
-        <v>10</v>
+      <c r="K45" s="17"/>
+      <c r="N45" s="3">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="Q45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T45" s="3">
         <v>3</v>
-      </c>
-      <c r="T45" s="10">
-        <v>0.65</v>
       </c>
       <c r="U45" s="10">
         <v>0.65</v>
       </c>
-      <c r="V45" s="18"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V45" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="W45" s="17"/>
+      <c r="AA45" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE45" s="9"/>
+      <c r="AF45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH45" s="10">
+        <v>0.49</v>
+      </c>
+      <c r="AI45" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="AJ45" s="17"/>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>9</v>
       </c>
@@ -3016,35 +3688,61 @@
       <c r="J46" s="10">
         <v>0.35</v>
       </c>
-      <c r="K46" s="18"/>
-      <c r="M46" s="3">
+      <c r="K46" s="17"/>
+      <c r="N46" s="3">
         <v>9</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O46" s="9" t="s">
-        <v>10</v>
+      <c r="O46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P46" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="Q46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46" s="3">
         <v>4</v>
       </c>
-      <c r="T46" s="10">
+      <c r="U46" s="10">
         <v>0.7</v>
       </c>
-      <c r="U46" s="10">
+      <c r="V46" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V46" s="18"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W46" s="17"/>
+      <c r="AA46" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE46" s="9"/>
+      <c r="AF46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AI46" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="AJ46" s="17"/>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>10</v>
       </c>
@@ -3070,35 +3768,61 @@
       <c r="J47" s="10">
         <v>0.4</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="M47" s="3">
-        <v>10</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="9" t="s">
-        <v>10</v>
+      <c r="K47" s="17"/>
+      <c r="N47" s="3">
+        <v>10</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P47" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="Q47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T47" s="3">
         <v>5</v>
-      </c>
-      <c r="T47" s="10">
-        <v>0.55000000000000004</v>
       </c>
       <c r="U47" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V47" s="18"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V47" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W47" s="17"/>
+      <c r="AA47" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE47" s="9"/>
+      <c r="AF47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH47" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="AI47" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AJ47" s="17"/>
+    </row>
+    <row r="48" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>11</v>
       </c>
@@ -3124,41 +3848,70 @@
       <c r="J48" s="12">
         <v>0.45</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="18">
         <f t="shared" ref="K48" si="9">MAX(I48:J52)</f>
         <v>0.5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="11"/>
       <c r="R48" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48" s="3">
         <v>1</v>
       </c>
-      <c r="T48" s="12">
+      <c r="U48" s="12">
         <v>0.6</v>
       </c>
-      <c r="U48" s="12">
+      <c r="V48" s="12">
         <v>0.5</v>
       </c>
-      <c r="V48" s="19">
-        <f t="shared" ref="V48" si="10">MAX(T48:U52)</f>
+      <c r="W48" s="18">
+        <f>MAX(U48:V52)</f>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="AA48" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="12">
+        <v>0.49</v>
+      </c>
+      <c r="AI48" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AJ48" s="18">
+        <f t="shared" ref="AJ48" si="10">MAX(AH48:AI52)</f>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="49" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>12</v>
       </c>
@@ -3184,35 +3937,61 @@
       <c r="J49" s="12">
         <v>0.4</v>
       </c>
-      <c r="K49" s="19"/>
-      <c r="M49" s="3">
+      <c r="K49" s="18"/>
+      <c r="N49" s="3">
         <v>12</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q49" s="11"/>
       <c r="R49" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T49" s="3">
         <v>2</v>
       </c>
-      <c r="T49" s="12">
+      <c r="U49" s="12">
         <v>0.65</v>
       </c>
-      <c r="U49" s="12">
+      <c r="V49" s="12">
         <v>0.5</v>
       </c>
-      <c r="V49" s="19"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W49" s="18"/>
+      <c r="AA49" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF49" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH49" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AI49" s="12">
+        <v>0.35</v>
+      </c>
+      <c r="AJ49" s="18"/>
+    </row>
+    <row r="50" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>13</v>
       </c>
@@ -3238,35 +4017,61 @@
       <c r="J50" s="12">
         <v>0.35</v>
       </c>
-      <c r="K50" s="19"/>
-      <c r="M50" s="3">
+      <c r="K50" s="18"/>
+      <c r="N50" s="3">
         <v>13</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O50" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="11"/>
       <c r="R50" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T50" s="3">
         <v>3</v>
       </c>
-      <c r="T50" s="12">
+      <c r="U50" s="12">
         <v>0.6</v>
       </c>
-      <c r="U50" s="12">
+      <c r="V50" s="12">
         <v>0.45</v>
       </c>
-      <c r="V50" s="19"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W50" s="18"/>
+      <c r="AA50" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF50" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH50" s="12">
+        <v>0.46</v>
+      </c>
+      <c r="AI50" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AJ50" s="18"/>
+    </row>
+    <row r="51" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>14</v>
       </c>
@@ -3292,35 +4097,61 @@
       <c r="J51" s="12">
         <v>0.35</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="M51" s="3">
+      <c r="K51" s="18"/>
+      <c r="N51" s="3">
         <v>14</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O51" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q51" s="11"/>
       <c r="R51" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T51" s="3">
         <v>4</v>
       </c>
-      <c r="T51" s="12">
+      <c r="U51" s="12">
         <v>0.65</v>
       </c>
-      <c r="U51" s="12">
+      <c r="V51" s="12">
         <v>0.45</v>
       </c>
-      <c r="V51" s="19"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W51" s="18"/>
+      <c r="AA51" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF51" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH51" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AI51" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="AJ51" s="18"/>
+    </row>
+    <row r="52" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>15</v>
       </c>
@@ -3346,35 +4177,61 @@
       <c r="J52" s="12">
         <v>0.35</v>
       </c>
-      <c r="K52" s="19"/>
-      <c r="M52" s="3">
+      <c r="K52" s="18"/>
+      <c r="N52" s="3">
         <v>15</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="11" t="s">
-        <v>10</v>
-      </c>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="11"/>
       <c r="R52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T52" s="3">
         <v>5</v>
       </c>
-      <c r="T52" s="12">
+      <c r="U52" s="12">
         <v>0.6</v>
       </c>
-      <c r="U52" s="12">
+      <c r="V52" s="12">
         <v>0.5</v>
       </c>
-      <c r="V52" s="19"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W52" s="18"/>
+      <c r="AA52" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH52" s="12">
+        <v>0.53</v>
+      </c>
+      <c r="AI52" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AJ52" s="18"/>
+    </row>
+    <row r="53" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>16</v>
       </c>
@@ -3400,41 +4257,70 @@
       <c r="J53" s="14">
         <v>0.25</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K53" s="19">
         <f t="shared" ref="K53" si="11">MAX(I53:J57)</f>
         <v>0.4</v>
       </c>
-      <c r="M53" s="3">
+      <c r="N53" s="3">
         <v>16</v>
       </c>
-      <c r="N53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O53" s="13"/>
-      <c r="P53" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P53" s="13"/>
       <c r="Q53" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T53" s="3">
         <v>1</v>
-      </c>
-      <c r="T53" s="14">
-        <v>0.6</v>
       </c>
       <c r="U53" s="14">
         <v>0.6</v>
       </c>
-      <c r="V53" s="20">
-        <f t="shared" ref="V53" si="12">MAX(T53:U57)</f>
+      <c r="V53" s="14">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W53" s="19">
+        <f>MAX(U53:V57)</f>
+        <v>0.6</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF53" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="14">
+        <v>0.41</v>
+      </c>
+      <c r="AI53" s="14">
+        <v>0.61</v>
+      </c>
+      <c r="AJ53" s="19">
+        <f t="shared" ref="AJ53" si="12">MAX(AH53:AI57)</f>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="54" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>17</v>
       </c>
@@ -3460,35 +4346,61 @@
       <c r="J54" s="14">
         <v>0.4</v>
       </c>
-      <c r="K54" s="20"/>
-      <c r="M54" s="3">
+      <c r="K54" s="19"/>
+      <c r="N54" s="3">
         <v>17</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O54" s="13"/>
-      <c r="P54" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="13"/>
       <c r="Q54" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R54" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T54" s="3">
         <v>2</v>
       </c>
-      <c r="T54" s="14">
+      <c r="U54" s="14">
         <v>0.5</v>
       </c>
-      <c r="U54" s="14">
+      <c r="V54" s="14">
         <v>0.45</v>
       </c>
-      <c r="V54" s="20"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W54" s="19"/>
+      <c r="AA54" s="3">
+        <v>17</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF54" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH54" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="AI54" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="AJ54" s="19"/>
+    </row>
+    <row r="55" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>18</v>
       </c>
@@ -3514,35 +4426,61 @@
       <c r="J55" s="14">
         <v>0.35</v>
       </c>
-      <c r="K55" s="20"/>
-      <c r="M55" s="3">
+      <c r="K55" s="19"/>
+      <c r="N55" s="3">
         <v>18</v>
       </c>
-      <c r="N55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P55" s="13"/>
       <c r="Q55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R55" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T55" s="3">
         <v>3</v>
-      </c>
-      <c r="T55" s="14">
-        <v>0.4</v>
       </c>
       <c r="U55" s="14">
         <v>0.4</v>
       </c>
-      <c r="V55" s="20"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V55" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="W55" s="19"/>
+      <c r="AA55" s="3">
+        <v>18</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF55" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG55" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH55" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="AI55" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="AJ55" s="19"/>
+    </row>
+    <row r="56" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>19</v>
       </c>
@@ -3568,35 +4506,61 @@
       <c r="J56" s="14">
         <v>0.35</v>
       </c>
-      <c r="K56" s="20"/>
-      <c r="M56" s="3">
+      <c r="K56" s="19"/>
+      <c r="N56" s="3">
         <v>19</v>
       </c>
-      <c r="N56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P56" s="13"/>
       <c r="Q56" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R56" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T56" s="3">
         <v>4</v>
-      </c>
-      <c r="T56" s="14">
-        <v>0.35</v>
       </c>
       <c r="U56" s="14">
         <v>0.35</v>
       </c>
-      <c r="V56" s="20"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="V56" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="W56" s="19"/>
+      <c r="AA56" s="3">
+        <v>19</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC56" s="13"/>
+      <c r="AD56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF56" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH56" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="AI56" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="AJ56" s="19"/>
+    </row>
+    <row r="57" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>20</v>
       </c>
@@ -3622,35 +4586,61 @@
       <c r="J57" s="14">
         <v>0.35</v>
       </c>
-      <c r="K57" s="20"/>
-      <c r="M57" s="3">
+      <c r="K57" s="19"/>
+      <c r="N57" s="3">
         <v>20</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O57" s="13"/>
-      <c r="P57" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="13"/>
       <c r="Q57" s="13" t="s">
         <v>10</v>
       </c>
       <c r="R57" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T57" s="3">
         <v>5</v>
       </c>
-      <c r="T57" s="14">
+      <c r="U57" s="14">
         <v>0.45</v>
       </c>
-      <c r="U57" s="14">
+      <c r="V57" s="14">
         <v>0.35</v>
       </c>
-      <c r="V57" s="20"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W57" s="19"/>
+      <c r="AA57" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="13"/>
+      <c r="AD57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH57" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="AI57" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="AJ57" s="19"/>
+    </row>
+    <row r="58" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>21</v>
       </c>
@@ -3678,18 +4668,15 @@
       <c r="J58" s="6">
         <v>0.45</v>
       </c>
-      <c r="K58" s="21">
+      <c r="K58" s="20">
         <f t="shared" ref="K58" si="13">MAX(I58:J62)</f>
         <v>0.45</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>10</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>10</v>
@@ -3700,21 +4687,55 @@
       <c r="R58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T58" s="3">
         <v>1</v>
-      </c>
-      <c r="T58" s="6">
-        <v>0.65</v>
       </c>
       <c r="U58" s="6">
         <v>0.65</v>
       </c>
-      <c r="V58" s="21">
-        <f t="shared" ref="V58" si="14">MAX(T58:U62)</f>
+      <c r="V58" s="6">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W58" s="20">
+        <f>MAX(U58:V62)</f>
+        <v>0.65</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>21</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="AI58" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ58" s="20">
+        <f t="shared" ref="AJ58" si="14">MAX(AH58:AI62)</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="59" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>22</v>
       </c>
@@ -3742,15 +4763,12 @@
       <c r="J59" s="6">
         <v>0.35</v>
       </c>
-      <c r="K59" s="21"/>
-      <c r="M59" s="3">
+      <c r="K59" s="20"/>
+      <c r="N59" s="3">
         <v>22</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>10</v>
+      <c r="O59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>10</v>
@@ -3761,18 +4779,49 @@
       <c r="R59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3">
         <v>2</v>
       </c>
-      <c r="T59" s="6">
+      <c r="U59" s="6">
         <v>0.65</v>
       </c>
-      <c r="U59" s="6">
+      <c r="V59" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V59" s="21"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W59" s="20"/>
+      <c r="AA59" s="3">
+        <v>22</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG59" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH59" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="AI59" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="AJ59" s="20"/>
+    </row>
+    <row r="60" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>23</v>
       </c>
@@ -3800,15 +4849,12 @@
       <c r="J60" s="6">
         <v>0.35</v>
       </c>
-      <c r="K60" s="21"/>
-      <c r="M60" s="3">
+      <c r="K60" s="20"/>
+      <c r="N60" s="3">
         <v>23</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O60" s="4" t="s">
-        <v>10</v>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>10</v>
@@ -3819,18 +4865,49 @@
       <c r="R60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T60" s="3">
         <v>3</v>
       </c>
-      <c r="T60" s="6">
+      <c r="U60" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U60" s="6">
+      <c r="V60" s="6">
         <v>0.5</v>
       </c>
-      <c r="V60" s="21"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W60" s="20"/>
+      <c r="AA60" s="3">
+        <v>23</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH60" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="AI60" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="AJ60" s="20"/>
+    </row>
+    <row r="61" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>24</v>
       </c>
@@ -3858,15 +4935,12 @@
       <c r="J61" s="6">
         <v>0.35</v>
       </c>
-      <c r="K61" s="21"/>
-      <c r="M61" s="3">
+      <c r="K61" s="20"/>
+      <c r="N61" s="3">
         <v>24</v>
       </c>
-      <c r="N61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O61" s="4" t="s">
-        <v>10</v>
+      <c r="O61" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>10</v>
@@ -3877,18 +4951,49 @@
       <c r="R61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S61" s="3">
+      <c r="S61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T61" s="3">
         <v>4</v>
       </c>
-      <c r="T61" s="6">
+      <c r="U61" s="6">
         <v>0.6</v>
       </c>
-      <c r="U61" s="6">
+      <c r="V61" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V61" s="21"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="W61" s="20"/>
+      <c r="AA61" s="3">
+        <v>24</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>4</v>
+      </c>
+      <c r="AH61" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="AI61" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="AJ61" s="20"/>
+    </row>
+    <row r="62" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>25</v>
       </c>
@@ -3916,15 +5021,12 @@
       <c r="J62" s="6">
         <v>0.3</v>
       </c>
-      <c r="K62" s="21"/>
-      <c r="M62" s="3">
+      <c r="K62" s="20"/>
+      <c r="N62" s="3">
         <v>25</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>10</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="4" t="s">
         <v>10</v>
@@ -3935,818 +5037,1823 @@
       <c r="R62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T62" s="3">
         <v>5</v>
       </c>
-      <c r="T62" s="6">
+      <c r="U62" s="6">
         <v>0.5</v>
       </c>
-      <c r="U62" s="6">
+      <c r="V62" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V62" s="21"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B65" s="16" t="s">
+      <c r="W62" s="20"/>
+      <c r="AA62" s="3">
+        <v>25</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>5</v>
+      </c>
+      <c r="AH62" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="AI62" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="AJ62" s="20"/>
+    </row>
+    <row r="66" spans="2:33" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="23"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="N66" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66"/>
+      <c r="AA66" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB66" s="45"/>
+      <c r="AC66" s="45"/>
+      <c r="AD66" s="45"/>
+      <c r="AE66" s="45"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+    </row>
+    <row r="67" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67"/>
+      <c r="AA67" s="45"/>
+      <c r="AB67" s="45"/>
+      <c r="AC67" s="45"/>
+      <c r="AD67" s="45"/>
+      <c r="AE67" s="45"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B68" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="K68" s="89"/>
+      <c r="N68" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O68" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="P68" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="27"/>
+      <c r="R68" s="27"/>
+      <c r="S68" s="27"/>
+      <c r="T68" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="U68" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="V68" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="W68" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="X68" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y68"/>
+      <c r="AA68" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB68" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC68" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD68" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="15" t="s">
+      <c r="AE68" s="46"/>
+    </row>
+    <row r="69" spans="2:33" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="27"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="89"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="29"/>
+      <c r="P69" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R69" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S69" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="56"/>
+      <c r="W69" s="56"/>
+      <c r="X69" s="29"/>
+      <c r="Y69"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="46"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="46"/>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B70" s="55">
+        <v>1</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="47">
+        <v>1</v>
+      </c>
+      <c r="I70" s="58"/>
+      <c r="J70" s="59"/>
+      <c r="K70"/>
+      <c r="N70" s="55">
+        <v>1</v>
+      </c>
+      <c r="O70" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="P70" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q70" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="R70" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="S70" s="71"/>
+      <c r="T70" s="47">
+        <v>1</v>
+      </c>
+      <c r="U70" s="72"/>
+      <c r="V70" s="72">
+        <v>0.74</v>
+      </c>
+      <c r="W70" s="72">
+        <v>0.83</v>
+      </c>
+      <c r="X70" s="73">
+        <f>MAX(V70:W74)</f>
+        <v>0.83</v>
+      </c>
+      <c r="Y70"/>
+      <c r="AA70" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B71" s="55">
+        <v>2</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="50"/>
+      <c r="G71" s="50"/>
+      <c r="H71" s="3">
+        <v>2</v>
+      </c>
+      <c r="I71" s="50"/>
+      <c r="J71" s="61"/>
+      <c r="K71"/>
+      <c r="N71" s="55">
+        <v>2</v>
+      </c>
+      <c r="O71" s="74"/>
+      <c r="P71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S71" s="7"/>
+      <c r="T71" s="3">
+        <v>2</v>
+      </c>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="W71" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="X71" s="75"/>
+      <c r="Y71"/>
+      <c r="AA71" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB71" s="95"/>
+      <c r="AC71" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B72" s="55">
+        <v>3</v>
+      </c>
+      <c r="C72" s="60"/>
+      <c r="D72" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="3">
+        <v>3</v>
+      </c>
+      <c r="I72" s="50"/>
+      <c r="J72" s="61"/>
+      <c r="K72"/>
+      <c r="N72" s="55">
+        <v>3</v>
+      </c>
+      <c r="O72" s="74"/>
+      <c r="P72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S72" s="7"/>
+      <c r="T72" s="3">
+        <v>3</v>
+      </c>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="W72" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="X72" s="75"/>
+      <c r="Y72"/>
+      <c r="AA72" s="3">
+        <v>3</v>
+      </c>
+      <c r="AB72" s="95"/>
+      <c r="AC72" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD72" s="43"/>
+      <c r="AE72" s="43"/>
+    </row>
+    <row r="73" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B73" s="55">
+        <v>4</v>
+      </c>
+      <c r="C73" s="60"/>
+      <c r="D73" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+      <c r="H73" s="3">
+        <v>4</v>
+      </c>
+      <c r="I73" s="50"/>
+      <c r="J73" s="61"/>
+      <c r="K73"/>
+      <c r="N73" s="55">
+        <v>4</v>
+      </c>
+      <c r="O73" s="74"/>
+      <c r="P73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S73" s="7"/>
+      <c r="T73" s="3">
+        <v>4</v>
+      </c>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="W73" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="X73" s="75"/>
+      <c r="Y73"/>
+      <c r="AA73" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB73" s="95"/>
+      <c r="AC73" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD73" s="43"/>
+      <c r="AE73" s="43"/>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B74" s="55">
         <v>5</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C74" s="60"/>
+      <c r="D74" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="50"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="3">
+        <v>5</v>
+      </c>
+      <c r="I74" s="50"/>
+      <c r="J74" s="61"/>
+      <c r="K74"/>
+      <c r="N74" s="55">
+        <v>5</v>
+      </c>
+      <c r="O74" s="74"/>
+      <c r="P74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S74" s="7"/>
+      <c r="T74" s="3">
+        <v>5</v>
+      </c>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="W74" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="X74" s="75"/>
+      <c r="Y74"/>
+      <c r="AA74" s="3">
+        <v>5</v>
+      </c>
+      <c r="AB74" s="96"/>
+      <c r="AC74" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD74" s="43"/>
+      <c r="AE74" s="43"/>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B75" s="55">
+        <v>6</v>
+      </c>
+      <c r="C75" s="60"/>
+      <c r="D75" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="51"/>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="51"/>
+      <c r="J75" s="62"/>
+      <c r="K75"/>
+      <c r="N75" s="55">
+        <v>6</v>
+      </c>
+      <c r="O75" s="74"/>
+      <c r="P75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T75" s="3">
+        <v>1</v>
+      </c>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="W75" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="X75" s="76">
+        <f t="shared" ref="X75" si="15">MAX(V75:W79)</f>
+        <v>0.47</v>
+      </c>
+      <c r="Y75"/>
+      <c r="AA75" s="3">
+        <v>6</v>
+      </c>
+      <c r="AB75" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="44"/>
+      <c r="AE75" s="44"/>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B76" s="55">
         <v>7</v>
       </c>
-      <c r="D67" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15" t="s">
+      <c r="C76" s="60"/>
+      <c r="D76" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G76" s="51"/>
+      <c r="H76" s="3">
+        <v>2</v>
+      </c>
+      <c r="I76" s="51"/>
+      <c r="J76" s="62"/>
+      <c r="K76"/>
+      <c r="N76" s="55">
+        <v>7</v>
+      </c>
+      <c r="O76" s="74"/>
+      <c r="P76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T76" s="3">
+        <v>2</v>
+      </c>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="W76" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="X76" s="76"/>
+      <c r="Y76"/>
+      <c r="AA76" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD76" s="44"/>
+      <c r="AE76" s="44"/>
+    </row>
+    <row r="77" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B77" s="55">
+        <v>8</v>
+      </c>
+      <c r="C77" s="60"/>
+      <c r="D77" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G77" s="51"/>
+      <c r="H77" s="3">
+        <v>3</v>
+      </c>
+      <c r="I77" s="51"/>
+      <c r="J77" s="62"/>
+      <c r="K77"/>
+      <c r="N77" s="55">
+        <v>8</v>
+      </c>
+      <c r="O77" s="74"/>
+      <c r="P77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T77" s="3">
+        <v>3</v>
+      </c>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10">
+        <v>0.47</v>
+      </c>
+      <c r="W77" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="X77" s="76"/>
+      <c r="Y77"/>
+      <c r="AA77" s="3">
+        <v>8</v>
+      </c>
+      <c r="AB77" s="17"/>
+      <c r="AC77" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD77" s="44"/>
+      <c r="AE77" s="44"/>
+    </row>
+    <row r="78" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B78" s="55">
+        <v>9</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="51"/>
+      <c r="H78" s="3">
         <v>4</v>
       </c>
-      <c r="I67" s="15" t="s">
+      <c r="I78" s="51"/>
+      <c r="J78" s="62"/>
+      <c r="K78"/>
+      <c r="N78" s="55">
+        <v>9</v>
+      </c>
+      <c r="O78" s="74"/>
+      <c r="P78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T78" s="3">
+        <v>4</v>
+      </c>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="W78" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="X78" s="76"/>
+      <c r="Y78"/>
+      <c r="AA78" s="3">
+        <v>9</v>
+      </c>
+      <c r="AB78" s="17"/>
+      <c r="AC78" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD78" s="44"/>
+      <c r="AE78" s="44"/>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B79" s="55">
+        <v>10</v>
+      </c>
+      <c r="C79" s="60"/>
+      <c r="D79" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="51"/>
+      <c r="H79" s="3">
+        <v>5</v>
+      </c>
+      <c r="I79" s="51"/>
+      <c r="J79" s="62"/>
+      <c r="K79"/>
+      <c r="N79" s="55">
+        <v>10</v>
+      </c>
+      <c r="O79" s="74"/>
+      <c r="P79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T79" s="3">
+        <v>5</v>
+      </c>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="W79" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="X79" s="76"/>
+      <c r="Y79"/>
+      <c r="AA79" s="3">
+        <v>10</v>
+      </c>
+      <c r="AB79" s="17"/>
+      <c r="AC79" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD79" s="44"/>
+      <c r="AE79" s="44"/>
+    </row>
+    <row r="80" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B80" s="55">
+        <v>11</v>
+      </c>
+      <c r="C80" s="60"/>
+      <c r="D80" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="52"/>
+      <c r="J80" s="63"/>
+      <c r="K80"/>
+      <c r="N80" s="55">
+        <v>11</v>
+      </c>
+      <c r="O80" s="74"/>
+      <c r="P80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T80" s="3">
+        <v>1</v>
+      </c>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="W80" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="X80" s="77">
+        <f t="shared" ref="X80" si="16">MAX(V80:W84)</f>
+        <v>0.45</v>
+      </c>
+      <c r="Y80"/>
+      <c r="AA80" s="3">
+        <v>11</v>
+      </c>
+      <c r="AB80" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="90"/>
+      <c r="AE80" s="91"/>
+    </row>
+    <row r="81" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B81" s="55">
+        <v>12</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="3">
+        <v>2</v>
+      </c>
+      <c r="I81" s="52"/>
+      <c r="J81" s="63"/>
+      <c r="K81"/>
+      <c r="N81" s="55">
+        <v>12</v>
+      </c>
+      <c r="O81" s="74"/>
+      <c r="P81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T81" s="3">
+        <v>2</v>
+      </c>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="W81" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="X81" s="77"/>
+      <c r="Y81"/>
+      <c r="AA81" s="3">
+        <v>12</v>
+      </c>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD81" s="90"/>
+      <c r="AE81" s="91"/>
+    </row>
+    <row r="82" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B82" s="55">
         <v>13</v>
       </c>
-      <c r="J67" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="K67" s="15" t="s">
+      <c r="C82" s="60"/>
+      <c r="D82" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="3">
+        <v>3</v>
+      </c>
+      <c r="I82" s="52"/>
+      <c r="J82" s="63"/>
+      <c r="K82"/>
+      <c r="N82" s="55">
+        <v>13</v>
+      </c>
+      <c r="O82" s="74"/>
+      <c r="P82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S82" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T82" s="3">
+        <v>3</v>
+      </c>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12">
+        <v>0.44</v>
+      </c>
+      <c r="W82" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X82" s="77"/>
+      <c r="Y82"/>
+      <c r="AA82" s="3">
+        <v>13</v>
+      </c>
+      <c r="AB82" s="18"/>
+      <c r="AC82" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD82" s="90"/>
+      <c r="AE82" s="91"/>
+    </row>
+    <row r="83" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B83" s="55">
+        <v>14</v>
+      </c>
+      <c r="C83" s="60"/>
+      <c r="D83" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4</v>
+      </c>
+      <c r="I83" s="52"/>
+      <c r="J83" s="63"/>
+      <c r="K83"/>
+      <c r="N83" s="55">
+        <v>14</v>
+      </c>
+      <c r="O83" s="74"/>
+      <c r="P83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S83" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T83" s="3">
+        <v>4</v>
+      </c>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="W83" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="X83" s="77"/>
+      <c r="Y83"/>
+      <c r="AA83" s="3">
+        <v>14</v>
+      </c>
+      <c r="AB83" s="18"/>
+      <c r="AC83" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="90"/>
+      <c r="AE83" s="91"/>
+    </row>
+    <row r="84" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B84" s="55">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E68" s="2" t="s">
+      <c r="C84" s="60"/>
+      <c r="D84" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="3">
+        <v>5</v>
+      </c>
+      <c r="I84" s="52"/>
+      <c r="J84" s="63"/>
+      <c r="K84"/>
+      <c r="N84" s="55">
+        <v>15</v>
+      </c>
+      <c r="O84" s="74"/>
+      <c r="P84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T84" s="3">
+        <v>5</v>
+      </c>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12">
+        <v>0.38</v>
+      </c>
+      <c r="W84" s="12">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="X84" s="77"/>
+      <c r="Y84"/>
+      <c r="AA84" s="3">
+        <v>15</v>
+      </c>
+      <c r="AB84" s="18"/>
+      <c r="AC84" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD84" s="90"/>
+      <c r="AE84" s="91"/>
+    </row>
+    <row r="85" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B85" s="55">
+        <v>16</v>
+      </c>
+      <c r="C85" s="60"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="53"/>
+      <c r="H85" s="3">
         <v>1</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="I85" s="53"/>
+      <c r="J85" s="64"/>
+      <c r="K85"/>
+      <c r="N85" s="55">
+        <v>16</v>
+      </c>
+      <c r="O85" s="74"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T85" s="3">
+        <v>1</v>
+      </c>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14">
+        <v>0.34</v>
+      </c>
+      <c r="W85" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="X85" s="78">
+        <f t="shared" ref="X85" si="17">MAX(V85:W89)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Y85"/>
+      <c r="AA85" s="3">
+        <v>16</v>
+      </c>
+      <c r="AB85" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="92"/>
+      <c r="AE85" s="93"/>
+    </row>
+    <row r="86" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B86" s="55">
+        <v>17</v>
+      </c>
+      <c r="C86" s="60"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="53"/>
+      <c r="H86" s="3">
         <v>2</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="I86" s="53"/>
+      <c r="J86" s="64"/>
+      <c r="K86"/>
+      <c r="N86" s="55">
+        <v>17</v>
+      </c>
+      <c r="O86" s="74"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R86" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S86" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T86" s="3">
+        <v>2</v>
+      </c>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14">
+        <v>0.38</v>
+      </c>
+      <c r="W86" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X86" s="78"/>
+      <c r="Y86"/>
+      <c r="AA86" s="3">
+        <v>17</v>
+      </c>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD86" s="92"/>
+      <c r="AE86" s="93"/>
+    </row>
+    <row r="87" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B87" s="55">
+        <v>18</v>
+      </c>
+      <c r="C87" s="60"/>
+      <c r="D87" s="53"/>
+      <c r="E87" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="53"/>
+      <c r="H87" s="3">
         <v>3</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B69" s="3">
+      <c r="I87" s="53"/>
+      <c r="J87" s="64"/>
+      <c r="K87"/>
+      <c r="N87" s="55">
+        <v>18</v>
+      </c>
+      <c r="O87" s="74"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T87" s="3">
+        <v>3</v>
+      </c>
+      <c r="U87" s="14"/>
+      <c r="V87" s="14">
+        <v>0.39</v>
+      </c>
+      <c r="W87" s="14">
+        <v>0.27</v>
+      </c>
+      <c r="X87" s="78"/>
+      <c r="Y87"/>
+      <c r="AA87" s="3">
+        <v>18</v>
+      </c>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD87" s="92"/>
+      <c r="AE87" s="93"/>
+    </row>
+    <row r="88" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B88" s="55">
+        <v>19</v>
+      </c>
+      <c r="C88" s="60"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="53"/>
+      <c r="H88" s="3">
+        <v>4</v>
+      </c>
+      <c r="I88" s="53"/>
+      <c r="J88" s="64"/>
+      <c r="K88"/>
+      <c r="N88" s="55">
+        <v>19</v>
+      </c>
+      <c r="O88" s="74"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="S88" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="T88" s="3">
+        <v>4</v>
+      </c>
+      <c r="U88" s="14"/>
+      <c r="V88" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="W88" s="14">
+        <v>0.26</v>
+      </c>
+      <c r="X88" s="78"/>
+      <c r="Y88"/>
+      <c r="AA88" s="3">
+        <v>19</v>
+      </c>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD88" s="92"/>
+      <c r="AE88" s="93"/>
+    </row>
+    <row r="89" spans="2:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="55">
+        <v>20</v>
+      </c>
+      <c r="C89" s="60"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="53"/>
+      <c r="H89" s="3">
+        <v>5</v>
+      </c>
+      <c r="I89" s="53"/>
+      <c r="J89" s="64"/>
+      <c r="K89"/>
+      <c r="N89" s="55">
+        <v>20</v>
+      </c>
+      <c r="O89" s="79"/>
+      <c r="P89" s="80"/>
+      <c r="Q89" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="S89" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="T89" s="48">
+        <v>5</v>
+      </c>
+      <c r="U89" s="81"/>
+      <c r="V89" s="81">
+        <v>0.4</v>
+      </c>
+      <c r="W89" s="81">
+        <v>0.26</v>
+      </c>
+      <c r="X89" s="82"/>
+      <c r="Y89"/>
+      <c r="AA89" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB89" s="19"/>
+      <c r="AC89" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD89" s="92"/>
+      <c r="AE89" s="93"/>
+    </row>
+    <row r="90" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B90" s="55">
+        <v>21</v>
+      </c>
+      <c r="C90" s="60"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="54"/>
+      <c r="G90" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="3">
         <v>1</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="3">
+      <c r="I90" s="54"/>
+      <c r="J90" s="65"/>
+      <c r="K90"/>
+      <c r="N90" s="55">
+        <v>21</v>
+      </c>
+      <c r="O90" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="P90" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q90" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="R90" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="S90" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="T90" s="47">
         <v>1</v>
       </c>
-      <c r="I69" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="J69" s="8">
-        <v>0.83</v>
-      </c>
-      <c r="K69" s="17">
-        <f>MAX(I69:J73)</f>
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="3">
+      <c r="U90" s="84"/>
+      <c r="V90" s="84">
+        <v>0.33</v>
+      </c>
+      <c r="W90" s="84">
+        <v>0.35</v>
+      </c>
+      <c r="X90" s="85">
+        <f t="shared" ref="X90" si="18">MAX(V90:W94)</f>
+        <v>0.42</v>
+      </c>
+      <c r="Y90"/>
+    </row>
+    <row r="91" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B91" s="55">
+        <v>22</v>
+      </c>
+      <c r="C91" s="60"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="3">
         <v>2</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="3">
+      <c r="I91" s="54"/>
+      <c r="J91" s="65"/>
+      <c r="K91"/>
+      <c r="N91" s="55">
+        <v>22</v>
+      </c>
+      <c r="O91" s="74"/>
+      <c r="P91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S91" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T91" s="3">
         <v>2</v>
       </c>
-      <c r="I70" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="J70" s="8">
-        <v>0.82</v>
-      </c>
-      <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="3">
+      <c r="U91" s="6"/>
+      <c r="V91" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="W91" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="X91" s="86"/>
+      <c r="Y91"/>
+    </row>
+    <row r="92" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B92" s="55">
+        <v>23</v>
+      </c>
+      <c r="C92" s="60"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="54"/>
+      <c r="G92" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="3">
         <v>3</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="3">
+      <c r="I92" s="54"/>
+      <c r="J92" s="65"/>
+      <c r="K92"/>
+      <c r="N92" s="55">
+        <v>23</v>
+      </c>
+      <c r="O92" s="74"/>
+      <c r="P92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T92" s="3">
         <v>3</v>
       </c>
-      <c r="I71" s="8">
-        <v>0.76</v>
-      </c>
-      <c r="J71" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B72" s="3">
+      <c r="U92" s="6"/>
+      <c r="V92" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="W92" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X92" s="86"/>
+      <c r="Y92"/>
+    </row>
+    <row r="93" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B93" s="55">
+        <v>24</v>
+      </c>
+      <c r="C93" s="60"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="54"/>
+      <c r="G93" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="3">
         <v>4</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="3">
+      <c r="I93" s="54"/>
+      <c r="J93" s="65"/>
+      <c r="K93"/>
+      <c r="N93" s="55">
+        <v>24</v>
+      </c>
+      <c r="O93" s="74"/>
+      <c r="P93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="S93" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="T93" s="3">
         <v>4</v>
       </c>
-      <c r="I72" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="J72" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="K72" s="17"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B73" s="3">
+      <c r="U93" s="6"/>
+      <c r="V93" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="W93" s="6">
+        <v>0.27</v>
+      </c>
+      <c r="X93" s="86"/>
+      <c r="Y93"/>
+    </row>
+    <row r="94" spans="2:31" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="55">
+        <v>25</v>
+      </c>
+      <c r="C94" s="60"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="54"/>
+      <c r="G94" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="3">
         <v>5</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="3">
+      <c r="I94" s="54"/>
+      <c r="J94" s="65"/>
+      <c r="K94"/>
+      <c r="N94" s="55">
+        <v>25</v>
+      </c>
+      <c r="O94" s="79"/>
+      <c r="P94" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="R94" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="S94" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="T94" s="48">
         <v>5</v>
       </c>
-      <c r="I73" s="8">
-        <v>0.74</v>
-      </c>
-      <c r="J73" s="8">
-        <v>0.78</v>
-      </c>
-      <c r="K73" s="17"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B74" s="3">
-        <v>6</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H74" s="3">
+      <c r="U94" s="87"/>
+      <c r="V94" s="87">
+        <v>0.41</v>
+      </c>
+      <c r="W94" s="87">
+        <v>0.32</v>
+      </c>
+      <c r="X94" s="88"/>
+      <c r="Y94"/>
+    </row>
+    <row r="95" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B95" s="55">
+        <v>26</v>
+      </c>
+      <c r="C95" s="60"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="3">
         <v>1</v>
       </c>
-      <c r="I74" s="10">
-        <v>0.42</v>
-      </c>
-      <c r="J74" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="K74" s="18">
-        <f t="shared" ref="K74" si="15">MAX(I74:J78)</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="3">
-        <v>7</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H75" s="3">
+      <c r="I95" s="4"/>
+      <c r="J95" s="66"/>
+      <c r="K95"/>
+    </row>
+    <row r="96" spans="2:31" x14ac:dyDescent="0.3">
+      <c r="B96" s="55">
+        <v>27</v>
+      </c>
+      <c r="C96" s="60"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="3">
         <v>2</v>
       </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B76" s="3">
-        <v>8</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I96" s="4"/>
+      <c r="J96" s="66"/>
+      <c r="K96"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B97" s="55">
+        <v>28</v>
+      </c>
+      <c r="C97" s="60"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="3">
         <v>3</v>
       </c>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="18"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="3">
-        <v>9</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H77" s="3">
+      <c r="I97" s="4"/>
+      <c r="J97" s="66"/>
+      <c r="K97"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="55">
+        <v>29</v>
+      </c>
+      <c r="C98" s="60"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="3">
         <v>4</v>
       </c>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="18"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="3">
-        <v>10</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="3">
+      <c r="I98" s="4"/>
+      <c r="J98" s="66"/>
+      <c r="K98"/>
+    </row>
+    <row r="99" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="55">
+        <v>30</v>
+      </c>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="48">
         <v>5</v>
       </c>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="18"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="3">
-        <v>11</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H79" s="3">
-        <v>1</v>
-      </c>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="19">
-        <f t="shared" ref="K79" si="16">MAX(I79:J83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="3">
-        <v>12</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G80" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="3">
-        <v>2</v>
-      </c>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="19"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="3">
-        <v>13</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="3">
-        <v>3</v>
-      </c>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="19"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="3">
-        <v>14</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="3">
-        <v>4</v>
-      </c>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="19"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B83" s="3">
-        <v>15</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="3">
-        <v>5</v>
-      </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="19"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B84" s="3">
-        <v>16</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F84" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H84" s="3">
-        <v>1</v>
-      </c>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="20">
-        <f t="shared" ref="K84" si="17">MAX(I84:J88)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="3">
-        <v>17</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H85" s="3">
-        <v>2</v>
-      </c>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="20"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B86" s="3">
-        <v>18</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" s="3">
-        <v>3</v>
-      </c>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="3">
-        <v>19</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="3">
-        <v>4</v>
-      </c>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="3">
-        <v>20</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="3">
-        <v>5</v>
-      </c>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B89" s="3">
-        <v>21</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="3">
-        <v>1</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0.33</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0.35</v>
-      </c>
-      <c r="K89" s="21">
-        <f t="shared" ref="K89" si="18">MAX(I89:J93)</f>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B90" s="3">
-        <v>22</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="3">
-        <v>2</v>
-      </c>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="3">
-        <v>23</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="3">
-        <v>3</v>
-      </c>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="3">
-        <v>24</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="3">
-        <v>4</v>
-      </c>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="3">
-        <v>25</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="3">
-        <v>5</v>
-      </c>
-      <c r="I93" s="6">
-        <v>0.41</v>
-      </c>
-      <c r="J93" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="K93" s="21"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="69"/>
+      <c r="K99"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="K69:K73"/>
-    <mergeCell ref="K74:K78"/>
-    <mergeCell ref="K79:K83"/>
-    <mergeCell ref="K84:K88"/>
-    <mergeCell ref="K89:K93"/>
+  <mergeCells count="124">
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD88:AE88"/>
+    <mergeCell ref="AD89:AE89"/>
+    <mergeCell ref="O90:O94"/>
+    <mergeCell ref="X90:X94"/>
+    <mergeCell ref="B66:J67"/>
+    <mergeCell ref="AB75:AB79"/>
+    <mergeCell ref="AB80:AB84"/>
+    <mergeCell ref="AB85:AB89"/>
+    <mergeCell ref="AA66:AE67"/>
+    <mergeCell ref="AB70:AB74"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="V68:V69"/>
+    <mergeCell ref="W68:W69"/>
+    <mergeCell ref="X68:X69"/>
+    <mergeCell ref="O70:O89"/>
+    <mergeCell ref="X70:X74"/>
+    <mergeCell ref="X75:X79"/>
+    <mergeCell ref="X80:X84"/>
+    <mergeCell ref="X85:X89"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:S68"/>
+    <mergeCell ref="T68:T69"/>
+    <mergeCell ref="U68:U69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="C70:C99"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="AD78:AE78"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AA68:AA69"/>
+    <mergeCell ref="AB68:AB69"/>
+    <mergeCell ref="AC68:AC69"/>
+    <mergeCell ref="AD68:AE69"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="N66:X67"/>
+    <mergeCell ref="AJ38:AJ42"/>
+    <mergeCell ref="AJ43:AJ47"/>
+    <mergeCell ref="AJ48:AJ52"/>
+    <mergeCell ref="AJ53:AJ57"/>
+    <mergeCell ref="AJ58:AJ62"/>
+    <mergeCell ref="AB36:AB37"/>
+    <mergeCell ref="AH36:AH37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AJ36:AJ37"/>
+    <mergeCell ref="AA34:AJ35"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="W48:W52"/>
+    <mergeCell ref="W53:W57"/>
+    <mergeCell ref="W58:W62"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="K48:K52"/>
+    <mergeCell ref="K53:K57"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="W38:W42"/>
+    <mergeCell ref="W43:W47"/>
+    <mergeCell ref="W21:W25"/>
+    <mergeCell ref="W26:W30"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="K11:K15"/>
+    <mergeCell ref="K16:K20"/>
+    <mergeCell ref="K21:K25"/>
+    <mergeCell ref="K26:K30"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="B34:K35"/>
+    <mergeCell ref="N34:W35"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="T36:T37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="AA2:AD3"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N2:W3"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="V36:V37"/>
+    <mergeCell ref="W6:W10"/>
+    <mergeCell ref="W11:W15"/>
+    <mergeCell ref="W16:W20"/>
     <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B65:K66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:H68"/>
-    <mergeCell ref="I67:I68"/>
-    <mergeCell ref="J67:J68"/>
-    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="J68:J69"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="T36:T37"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="M2:V3"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="U36:U37"/>
     <mergeCell ref="I36:I37"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="O36:R36"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="V6:V10"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="V16:V20"/>
-    <mergeCell ref="V21:V25"/>
-    <mergeCell ref="V26:V30"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="K11:K15"/>
-    <mergeCell ref="K16:K20"/>
-    <mergeCell ref="K21:K25"/>
-    <mergeCell ref="K26:K30"/>
-    <mergeCell ref="V48:V52"/>
-    <mergeCell ref="V53:V57"/>
-    <mergeCell ref="V58:V62"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="K48:K52"/>
-    <mergeCell ref="K53:K57"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="B34:K35"/>
-    <mergeCell ref="M34:V35"/>
-    <mergeCell ref="V38:V42"/>
-    <mergeCell ref="V43:V47"/>
-    <mergeCell ref="V36:V37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:H37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Skripsi\Build Apps\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4784B-1D36-45D9-B6BE-64EB98095CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087FC73-622B-4D87-91CA-6245AB70E937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A5C6CAF5-34CE-427B-965F-75A853BB2CF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A5C6CAF5-34CE-427B-965F-75A853BB2CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Skenario Gabungan" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="52">
   <si>
     <t>Dissimilarity</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Akurasi RGB + GLCM</t>
-  </si>
-  <si>
-    <t>w</t>
   </si>
   <si>
     <t>Skenario</t>
@@ -646,6 +643,21 @@
     <xf numFmtId="2" fontId="8" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,15 +666,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -688,17 +691,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="8" borderId="2" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1095,63 +1092,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6955E733-C703-4457-A14D-DC4A17A73E59}">
   <dimension ref="B3:AT74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK43" sqref="AK43"/>
+    <sheetView tabSelected="1" topLeftCell="AI64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AK71" sqref="AK71:AP76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="8.85546875" style="1"/>
+    <col min="49" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B3" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
@@ -1174,7 +1171,7 @@
       <c r="U3" s="69"/>
       <c r="V3" s="69"/>
       <c r="X3" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y3" s="69"/>
       <c r="Z3" s="69"/>
@@ -1199,7 +1196,7 @@
       <c r="AS3" s="69"/>
       <c r="AT3" s="69"/>
     </row>
-    <row r="4" spans="2:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:46" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -1245,201 +1242,201 @@
       <c r="AS4" s="69"/>
       <c r="AT4" s="69"/>
     </row>
-    <row r="7" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="45"/>
-      <c r="M7" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="45"/>
-      <c r="X7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AJ7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AK7" s="42"/>
-      <c r="AL7" s="42"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="42"/>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-    </row>
-    <row r="8" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="48"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="48"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-    </row>
-    <row r="9" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+    <row r="7" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="M7" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="47"/>
+      <c r="X7" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AJ7" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+    </row>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="50"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+      <c r="AL8" s="44"/>
+      <c r="AM8" s="44"/>
+      <c r="AN8" s="44"/>
+      <c r="AO8" s="44"/>
+      <c r="AP8" s="44"/>
+      <c r="AQ8" s="44"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="40" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="52" t="s">
         <v>16</v>
       </c>
       <c r="K9" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="49" t="s">
+      <c r="M9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="49" t="s">
+      <c r="N9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="40" t="s">
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="U9" s="40" t="s">
+      <c r="U9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="49" t="s">
+      <c r="V9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="49" t="s">
+      <c r="X9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="Y9" s="49" t="s">
+      <c r="Y9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="Z9" s="36" t="s">
+      <c r="Z9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="38"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="43"/>
       <c r="AE9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF9" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="40" t="s">
+      <c r="AG9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AH9" s="49" t="s">
+      <c r="AH9" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AJ9" s="49" t="s">
+      <c r="AJ9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AK9" s="49" t="s">
+      <c r="AK9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AL9" s="36" t="s">
+      <c r="AL9" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="38"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+      <c r="AP9" s="43"/>
       <c r="AQ9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR9" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="AS9" s="40" t="s">
+      <c r="AS9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AT9" s="49" t="s">
+      <c r="AT9" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1455,11 +1452,11 @@
       <c r="H10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="68"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1475,11 +1472,11 @@
       <c r="S10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
       <c r="Z10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1496,13 +1493,13 @@
         <v>4</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
+        <v>51</v>
+      </c>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="51"/>
+      <c r="AJ10" s="51"/>
+      <c r="AK10" s="51"/>
       <c r="AL10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1519,13 +1516,13 @@
         <v>4</v>
       </c>
       <c r="AQ10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AR10" s="54"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="49"/>
-    </row>
-    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="51"/>
+    </row>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -1580,7 +1577,7 @@
       <c r="U11" s="7">
         <v>0.7</v>
       </c>
-      <c r="V11" s="39">
+      <c r="V11" s="40">
         <f>MAX(T11:U15)</f>
         <v>0.75</v>
       </c>
@@ -1612,7 +1609,7 @@
       <c r="AG11" s="7">
         <v>0.7</v>
       </c>
-      <c r="AH11" s="39">
+      <c r="AH11" s="40">
         <f>MAX(AF11:AG15)</f>
         <v>0.7</v>
       </c>
@@ -1644,12 +1641,12 @@
       <c r="AS11" s="7">
         <v>0.9</v>
       </c>
-      <c r="AT11" s="39">
+      <c r="AT11" s="40">
         <f>MAX(AR11:AS15)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -1701,7 +1698,7 @@
       <c r="U12" s="7">
         <v>0.75</v>
       </c>
-      <c r="V12" s="39"/>
+      <c r="V12" s="40"/>
       <c r="X12" s="3">
         <v>2</v>
       </c>
@@ -1730,7 +1727,7 @@
       <c r="AG12" s="7">
         <v>0.7</v>
       </c>
-      <c r="AH12" s="39"/>
+      <c r="AH12" s="40"/>
       <c r="AJ12" s="3">
         <v>2</v>
       </c>
@@ -1759,9 +1756,9 @@
       <c r="AS12" s="7">
         <v>0.9</v>
       </c>
-      <c r="AT12" s="39"/>
-    </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT12" s="40"/>
+    </row>
+    <row r="13" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -1813,7 +1810,7 @@
       <c r="U13" s="7">
         <v>0.65</v>
       </c>
-      <c r="V13" s="39"/>
+      <c r="V13" s="40"/>
       <c r="X13" s="3">
         <v>3</v>
       </c>
@@ -1842,7 +1839,7 @@
       <c r="AG13" s="7">
         <v>0.7</v>
       </c>
-      <c r="AH13" s="39"/>
+      <c r="AH13" s="40"/>
       <c r="AJ13" s="3">
         <v>3</v>
       </c>
@@ -1871,9 +1868,9 @@
       <c r="AS13" s="7">
         <v>0.9</v>
       </c>
-      <c r="AT13" s="39"/>
-    </row>
-    <row r="14" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT13" s="40"/>
+    </row>
+    <row r="14" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -1925,7 +1922,7 @@
       <c r="U14" s="7">
         <v>0.65</v>
       </c>
-      <c r="V14" s="39"/>
+      <c r="V14" s="40"/>
       <c r="X14" s="3">
         <v>4</v>
       </c>
@@ -1954,7 +1951,7 @@
       <c r="AG14" s="7">
         <v>0.7</v>
       </c>
-      <c r="AH14" s="39"/>
+      <c r="AH14" s="40"/>
       <c r="AJ14" s="3">
         <v>4</v>
       </c>
@@ -1983,9 +1980,9 @@
       <c r="AS14" s="7">
         <v>0.9</v>
       </c>
-      <c r="AT14" s="39"/>
-    </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT14" s="40"/>
+    </row>
+    <row r="15" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -2037,7 +2034,7 @@
       <c r="U15" s="7">
         <v>0.65</v>
       </c>
-      <c r="V15" s="39"/>
+      <c r="V15" s="40"/>
       <c r="X15" s="3">
         <v>5</v>
       </c>
@@ -2066,7 +2063,7 @@
       <c r="AG15" s="7">
         <v>0.7</v>
       </c>
-      <c r="AH15" s="39"/>
+      <c r="AH15" s="40"/>
       <c r="AJ15" s="3">
         <v>5</v>
       </c>
@@ -2095,9 +2092,9 @@
       <c r="AS15" s="7">
         <v>0.9</v>
       </c>
-      <c r="AT15" s="39"/>
-    </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT15" s="40"/>
+    </row>
+    <row r="16" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>6</v>
       </c>
@@ -2152,7 +2149,7 @@
       <c r="U16" s="9">
         <v>0.65</v>
       </c>
-      <c r="V16" s="50">
+      <c r="V16" s="36">
         <f>MAX(T16:U20)</f>
         <v>0.65</v>
       </c>
@@ -2184,7 +2181,7 @@
       <c r="AG16" s="9">
         <v>0.65</v>
       </c>
-      <c r="AH16" s="50">
+      <c r="AH16" s="36">
         <f>MAX(AF16:AG20)</f>
         <v>0.75</v>
       </c>
@@ -2216,12 +2213,12 @@
       <c r="AS16" s="9">
         <v>0.95</v>
       </c>
-      <c r="AT16" s="50">
+      <c r="AT16" s="36">
         <f>MAX(AR16:AS20)</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="17" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -2273,7 +2270,7 @@
       <c r="U17" s="9">
         <v>0.65</v>
       </c>
-      <c r="V17" s="50"/>
+      <c r="V17" s="36"/>
       <c r="X17" s="3">
         <v>7</v>
       </c>
@@ -2302,7 +2299,7 @@
       <c r="AG17" s="9">
         <v>0.65</v>
       </c>
-      <c r="AH17" s="50"/>
+      <c r="AH17" s="36"/>
       <c r="AJ17" s="3">
         <v>7</v>
       </c>
@@ -2331,9 +2328,9 @@
       <c r="AS17" s="9">
         <v>0.95</v>
       </c>
-      <c r="AT17" s="50"/>
-    </row>
-    <row r="18" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT17" s="36"/>
+    </row>
+    <row r="18" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>8</v>
       </c>
@@ -2385,7 +2382,7 @@
       <c r="U18" s="9">
         <v>0.6</v>
       </c>
-      <c r="V18" s="50"/>
+      <c r="V18" s="36"/>
       <c r="X18" s="3">
         <v>8</v>
       </c>
@@ -2414,7 +2411,7 @@
       <c r="AG18" s="9">
         <v>0.7</v>
       </c>
-      <c r="AH18" s="50"/>
+      <c r="AH18" s="36"/>
       <c r="AJ18" s="3">
         <v>8</v>
       </c>
@@ -2443,9 +2440,9 @@
       <c r="AS18" s="9">
         <v>0.95</v>
       </c>
-      <c r="AT18" s="50"/>
-    </row>
-    <row r="19" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT18" s="36"/>
+    </row>
+    <row r="19" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>9</v>
       </c>
@@ -2497,7 +2494,7 @@
       <c r="U19" s="9">
         <v>0.6</v>
       </c>
-      <c r="V19" s="50"/>
+      <c r="V19" s="36"/>
       <c r="X19" s="3">
         <v>9</v>
       </c>
@@ -2526,7 +2523,7 @@
       <c r="AG19" s="9">
         <v>0.75</v>
       </c>
-      <c r="AH19" s="50"/>
+      <c r="AH19" s="36"/>
       <c r="AJ19" s="3">
         <v>9</v>
       </c>
@@ -2555,9 +2552,9 @@
       <c r="AS19" s="9">
         <v>0.95</v>
       </c>
-      <c r="AT19" s="50"/>
-    </row>
-    <row r="20" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT19" s="36"/>
+    </row>
+    <row r="20" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>10</v>
       </c>
@@ -2609,7 +2606,7 @@
       <c r="U20" s="9">
         <v>0.65</v>
       </c>
-      <c r="V20" s="50"/>
+      <c r="V20" s="36"/>
       <c r="X20" s="3">
         <v>10</v>
       </c>
@@ -2638,7 +2635,7 @@
       <c r="AG20" s="9">
         <v>0.75</v>
       </c>
-      <c r="AH20" s="50"/>
+      <c r="AH20" s="36"/>
       <c r="AJ20" s="3">
         <v>10</v>
       </c>
@@ -2667,9 +2664,9 @@
       <c r="AS20" s="9">
         <v>0.95</v>
       </c>
-      <c r="AT20" s="50"/>
-    </row>
-    <row r="21" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT20" s="36"/>
+    </row>
+    <row r="21" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>11</v>
       </c>
@@ -2724,7 +2721,7 @@
       <c r="U21" s="10">
         <v>0.65</v>
       </c>
-      <c r="V21" s="51">
+      <c r="V21" s="37">
         <f>MAX(T21:U25)</f>
         <v>0.7</v>
       </c>
@@ -2756,7 +2753,7 @@
       <c r="AG21" s="10">
         <v>0.65</v>
       </c>
-      <c r="AH21" s="51">
+      <c r="AH21" s="37">
         <f>MAX(AF21:AG25)</f>
         <v>0.75</v>
       </c>
@@ -2788,12 +2785,12 @@
       <c r="AS21" s="10">
         <v>0.95</v>
       </c>
-      <c r="AT21" s="51">
+      <c r="AT21" s="37">
         <f>MAX(AR21:AS25)</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
         <v>12</v>
       </c>
@@ -2845,7 +2842,7 @@
       <c r="U22" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V22" s="51"/>
+      <c r="V22" s="37"/>
       <c r="X22" s="3">
         <v>12</v>
       </c>
@@ -2874,7 +2871,7 @@
       <c r="AG22" s="10">
         <v>0.65</v>
       </c>
-      <c r="AH22" s="51"/>
+      <c r="AH22" s="37"/>
       <c r="AJ22" s="3">
         <v>12</v>
       </c>
@@ -2903,9 +2900,9 @@
       <c r="AS22" s="10">
         <v>0.95</v>
       </c>
-      <c r="AT22" s="51"/>
-    </row>
-    <row r="23" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT22" s="37"/>
+    </row>
+    <row r="23" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>13</v>
       </c>
@@ -2957,7 +2954,7 @@
       <c r="U23" s="10">
         <v>0.6</v>
       </c>
-      <c r="V23" s="51"/>
+      <c r="V23" s="37"/>
       <c r="X23" s="3">
         <v>13</v>
       </c>
@@ -2986,7 +2983,7 @@
       <c r="AG23" s="10">
         <v>0.7</v>
       </c>
-      <c r="AH23" s="51"/>
+      <c r="AH23" s="37"/>
       <c r="AJ23" s="3">
         <v>13</v>
       </c>
@@ -3015,9 +3012,9 @@
       <c r="AS23" s="10">
         <v>0.95</v>
       </c>
-      <c r="AT23" s="51"/>
-    </row>
-    <row r="24" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT23" s="37"/>
+    </row>
+    <row r="24" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>14</v>
       </c>
@@ -3069,7 +3066,7 @@
       <c r="U24" s="10">
         <v>0.65</v>
       </c>
-      <c r="V24" s="51"/>
+      <c r="V24" s="37"/>
       <c r="X24" s="3">
         <v>14</v>
       </c>
@@ -3098,7 +3095,7 @@
       <c r="AG24" s="10">
         <v>0.75</v>
       </c>
-      <c r="AH24" s="51"/>
+      <c r="AH24" s="37"/>
       <c r="AJ24" s="3">
         <v>14</v>
       </c>
@@ -3127,9 +3124,9 @@
       <c r="AS24" s="10">
         <v>0.95</v>
       </c>
-      <c r="AT24" s="51"/>
-    </row>
-    <row r="25" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT24" s="37"/>
+    </row>
+    <row r="25" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>15</v>
       </c>
@@ -3181,7 +3178,7 @@
       <c r="U25" s="10">
         <v>0.6</v>
       </c>
-      <c r="V25" s="51"/>
+      <c r="V25" s="37"/>
       <c r="X25" s="3">
         <v>15</v>
       </c>
@@ -3210,7 +3207,7 @@
       <c r="AG25" s="10">
         <v>0.75</v>
       </c>
-      <c r="AH25" s="51"/>
+      <c r="AH25" s="37"/>
       <c r="AJ25" s="3">
         <v>15</v>
       </c>
@@ -3239,9 +3236,9 @@
       <c r="AS25" s="10">
         <v>0.95</v>
       </c>
-      <c r="AT25" s="51"/>
-    </row>
-    <row r="26" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT25" s="37"/>
+    </row>
+    <row r="26" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>16</v>
       </c>
@@ -3296,7 +3293,7 @@
       <c r="U26" s="11">
         <v>0.6</v>
       </c>
-      <c r="V26" s="52">
+      <c r="V26" s="38">
         <f>MAX(T26:U30)</f>
         <v>0.7</v>
       </c>
@@ -3328,7 +3325,7 @@
       <c r="AG26" s="11">
         <v>0.75</v>
       </c>
-      <c r="AH26" s="52">
+      <c r="AH26" s="38">
         <f>MAX(AF26:AG30)</f>
         <v>0.75</v>
       </c>
@@ -3360,12 +3357,12 @@
       <c r="AS26" s="11">
         <v>0.95</v>
       </c>
-      <c r="AT26" s="52">
+      <c r="AT26" s="38">
         <f>MAX(AR26:AS30)</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="27" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
         <v>17</v>
       </c>
@@ -3417,7 +3414,7 @@
       <c r="U27" s="11">
         <v>0.7</v>
       </c>
-      <c r="V27" s="52"/>
+      <c r="V27" s="38"/>
       <c r="X27" s="3">
         <v>17</v>
       </c>
@@ -3446,7 +3443,7 @@
       <c r="AG27" s="11">
         <v>0.65</v>
       </c>
-      <c r="AH27" s="52"/>
+      <c r="AH27" s="38"/>
       <c r="AJ27" s="3">
         <v>17</v>
       </c>
@@ -3475,9 +3472,9 @@
       <c r="AS27" s="11">
         <v>0.95</v>
       </c>
-      <c r="AT27" s="52"/>
-    </row>
-    <row r="28" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT27" s="38"/>
+    </row>
+    <row r="28" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>18</v>
       </c>
@@ -3529,7 +3526,7 @@
       <c r="U28" s="11">
         <v>0.65</v>
       </c>
-      <c r="V28" s="52"/>
+      <c r="V28" s="38"/>
       <c r="X28" s="3">
         <v>18</v>
       </c>
@@ -3558,7 +3555,7 @@
       <c r="AG28" s="11">
         <v>0.7</v>
       </c>
-      <c r="AH28" s="52"/>
+      <c r="AH28" s="38"/>
       <c r="AJ28" s="3">
         <v>18</v>
       </c>
@@ -3587,9 +3584,9 @@
       <c r="AS28" s="11">
         <v>0.95</v>
       </c>
-      <c r="AT28" s="52"/>
-    </row>
-    <row r="29" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT28" s="38"/>
+    </row>
+    <row r="29" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>19</v>
       </c>
@@ -3641,7 +3638,7 @@
       <c r="U29" s="11">
         <v>0.7</v>
       </c>
-      <c r="V29" s="52"/>
+      <c r="V29" s="38"/>
       <c r="X29" s="3">
         <v>19</v>
       </c>
@@ -3670,7 +3667,7 @@
       <c r="AG29" s="11">
         <v>0.7</v>
       </c>
-      <c r="AH29" s="52"/>
+      <c r="AH29" s="38"/>
       <c r="AJ29" s="3">
         <v>19</v>
       </c>
@@ -3699,9 +3696,9 @@
       <c r="AS29" s="11">
         <v>0.95</v>
       </c>
-      <c r="AT29" s="52"/>
-    </row>
-    <row r="30" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT29" s="38"/>
+    </row>
+    <row r="30" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>20</v>
       </c>
@@ -3753,7 +3750,7 @@
       <c r="U30" s="11">
         <v>0.65</v>
       </c>
-      <c r="V30" s="52"/>
+      <c r="V30" s="38"/>
       <c r="X30" s="3">
         <v>20</v>
       </c>
@@ -3782,7 +3779,7 @@
       <c r="AG30" s="11">
         <v>0.7</v>
       </c>
-      <c r="AH30" s="52"/>
+      <c r="AH30" s="38"/>
       <c r="AJ30" s="3">
         <v>20</v>
       </c>
@@ -3811,9 +3808,9 @@
       <c r="AS30" s="11">
         <v>0.95</v>
       </c>
-      <c r="AT30" s="52"/>
-    </row>
-    <row r="31" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT30" s="38"/>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>21</v>
       </c>
@@ -3841,7 +3838,7 @@
       <c r="J31" s="5">
         <v>0.75</v>
       </c>
-      <c r="K31" s="53">
+      <c r="K31" s="39">
         <f>MAX(I31:J35)</f>
         <v>0.8</v>
       </c>
@@ -3872,7 +3869,7 @@
       <c r="U31" s="5">
         <v>0.65</v>
       </c>
-      <c r="V31" s="53">
+      <c r="V31" s="39">
         <f>MAX(T31:U35)</f>
         <v>0.7</v>
       </c>
@@ -3906,7 +3903,7 @@
       <c r="AG31" s="5">
         <v>0.65</v>
       </c>
-      <c r="AH31" s="53">
+      <c r="AH31" s="39">
         <f>MAX(AF31:AG35)</f>
         <v>0.75</v>
       </c>
@@ -3940,12 +3937,12 @@
       <c r="AS31" s="5">
         <v>0.95</v>
       </c>
-      <c r="AT31" s="53">
+      <c r="AT31" s="39">
         <f>MAX(AR31:AS35)</f>
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>22</v>
       </c>
@@ -3973,7 +3970,7 @@
       <c r="J32" s="5">
         <v>0.7</v>
       </c>
-      <c r="K32" s="53"/>
+      <c r="K32" s="39"/>
       <c r="M32" s="3">
         <v>22</v>
       </c>
@@ -4001,7 +3998,7 @@
       <c r="U32" s="5">
         <v>0.7</v>
       </c>
-      <c r="V32" s="53"/>
+      <c r="V32" s="39"/>
       <c r="X32" s="3">
         <v>22</v>
       </c>
@@ -4032,7 +4029,7 @@
       <c r="AG32" s="5">
         <v>0.65</v>
       </c>
-      <c r="AH32" s="53"/>
+      <c r="AH32" s="39"/>
       <c r="AJ32" s="3">
         <v>22</v>
       </c>
@@ -4063,9 +4060,9 @@
       <c r="AS32" s="5">
         <v>0.95</v>
       </c>
-      <c r="AT32" s="53"/>
-    </row>
-    <row r="33" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT32" s="39"/>
+    </row>
+    <row r="33" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>23</v>
       </c>
@@ -4093,7 +4090,7 @@
       <c r="J33" s="5">
         <v>0.65</v>
       </c>
-      <c r="K33" s="53"/>
+      <c r="K33" s="39"/>
       <c r="M33" s="3">
         <v>23</v>
       </c>
@@ -4121,7 +4118,7 @@
       <c r="U33" s="5">
         <v>0.65</v>
       </c>
-      <c r="V33" s="53"/>
+      <c r="V33" s="39"/>
       <c r="X33" s="3">
         <v>23</v>
       </c>
@@ -4152,7 +4149,7 @@
       <c r="AG33" s="5">
         <v>0.7</v>
       </c>
-      <c r="AH33" s="53"/>
+      <c r="AH33" s="39"/>
       <c r="AJ33" s="3">
         <v>23</v>
       </c>
@@ -4183,9 +4180,9 @@
       <c r="AS33" s="5">
         <v>0.95</v>
       </c>
-      <c r="AT33" s="53"/>
-    </row>
-    <row r="34" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT33" s="39"/>
+    </row>
+    <row r="34" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>24</v>
       </c>
@@ -4213,7 +4210,7 @@
       <c r="J34" s="5">
         <v>0.6</v>
       </c>
-      <c r="K34" s="53"/>
+      <c r="K34" s="39"/>
       <c r="M34" s="3">
         <v>24</v>
       </c>
@@ -4241,7 +4238,7 @@
       <c r="U34" s="5">
         <v>0.65</v>
       </c>
-      <c r="V34" s="53"/>
+      <c r="V34" s="39"/>
       <c r="X34" s="3">
         <v>24</v>
       </c>
@@ -4272,7 +4269,7 @@
       <c r="AG34" s="5">
         <v>0.75</v>
       </c>
-      <c r="AH34" s="53"/>
+      <c r="AH34" s="39"/>
       <c r="AJ34" s="3">
         <v>24</v>
       </c>
@@ -4303,9 +4300,9 @@
       <c r="AS34" s="5">
         <v>0.95</v>
       </c>
-      <c r="AT34" s="53"/>
-    </row>
-    <row r="35" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT34" s="39"/>
+    </row>
+    <row r="35" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>25</v>
       </c>
@@ -4333,7 +4330,7 @@
       <c r="J35" s="5">
         <v>0.65</v>
       </c>
-      <c r="K35" s="53"/>
+      <c r="K35" s="39"/>
       <c r="M35" s="3">
         <v>25</v>
       </c>
@@ -4361,7 +4358,7 @@
       <c r="U35" s="5">
         <v>0.7</v>
       </c>
-      <c r="V35" s="53"/>
+      <c r="V35" s="39"/>
       <c r="X35" s="3">
         <v>25</v>
       </c>
@@ -4392,7 +4389,7 @@
       <c r="AG35" s="5">
         <v>0.75</v>
       </c>
-      <c r="AH35" s="53"/>
+      <c r="AH35" s="39"/>
       <c r="AJ35" s="3">
         <v>25</v>
       </c>
@@ -4423,203 +4420,203 @@
       <c r="AS35" s="5">
         <v>0.95</v>
       </c>
-      <c r="AT35" s="53"/>
-    </row>
-    <row r="39" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B39" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="M39" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="X39" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AJ39" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="44"/>
-      <c r="AR39" s="44"/>
-      <c r="AS39" s="44"/>
-      <c r="AT39" s="45"/>
-    </row>
-    <row r="40" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="47"/>
-      <c r="AL40" s="47"/>
-      <c r="AM40" s="47"/>
-      <c r="AN40" s="47"/>
-      <c r="AO40" s="47"/>
-      <c r="AP40" s="47"/>
-      <c r="AQ40" s="47"/>
-      <c r="AR40" s="47"/>
-      <c r="AS40" s="47"/>
-      <c r="AT40" s="48"/>
-    </row>
-    <row r="41" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B41" s="49" t="s">
+      <c r="AT35" s="39"/>
+    </row>
+    <row r="39" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B39" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="M39" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="X39" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AJ39" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK39" s="46"/>
+      <c r="AL39" s="46"/>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="46"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
+      <c r="AQ39" s="46"/>
+      <c r="AR39" s="46"/>
+      <c r="AS39" s="46"/>
+      <c r="AT39" s="47"/>
+    </row>
+    <row r="40" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="49"/>
+      <c r="AL40" s="49"/>
+      <c r="AM40" s="49"/>
+      <c r="AN40" s="49"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="49"/>
+      <c r="AQ40" s="49"/>
+      <c r="AR40" s="49"/>
+      <c r="AS40" s="49"/>
+      <c r="AT40" s="50"/>
+    </row>
+    <row r="41" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B41" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="36" t="s">
+      <c r="D41" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="40" t="s">
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="J41" s="40" t="s">
+      <c r="J41" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="K41" s="49" t="s">
+      <c r="K41" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M41" s="49" t="s">
+      <c r="M41" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="49" t="s">
+      <c r="N41" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="O41" s="36" t="s">
+      <c r="O41" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="40" t="s">
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="U41" s="40" t="s">
+      <c r="U41" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="V41" s="49" t="s">
+      <c r="V41" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="X41" s="49" t="s">
+      <c r="X41" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="49" t="s">
+      <c r="Y41" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="Z41" s="36" t="s">
+      <c r="Z41" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="38"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="42"/>
+      <c r="AD41" s="43"/>
       <c r="AE41" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF41" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF41" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AG41" s="40" t="s">
+      <c r="AG41" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AH41" s="49" t="s">
+      <c r="AH41" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AJ41" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK41" s="49" t="s">
+      <c r="AJ41" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK41" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="AL41" s="36" t="s">
+      <c r="AL41" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="AM41" s="37"/>
-      <c r="AN41" s="37"/>
-      <c r="AO41" s="37"/>
-      <c r="AP41" s="38"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+      <c r="AO41" s="42"/>
+      <c r="AP41" s="43"/>
       <c r="AQ41" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR41" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR41" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="AS41" s="40" t="s">
+      <c r="AS41" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AT41" s="49" t="s">
+      <c r="AT41" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
+    <row r="42" spans="2:46" x14ac:dyDescent="0.3">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="2" t="s">
         <v>0</v>
       </c>
@@ -4635,11 +4632,11 @@
       <c r="H42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="49"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
+      <c r="I42" s="53"/>
+      <c r="J42" s="53"/>
+      <c r="K42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
       <c r="O42" s="2" t="s">
         <v>0</v>
       </c>
@@ -4655,11 +4652,11 @@
       <c r="S42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="41"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="49"/>
-      <c r="X42" s="49"/>
-      <c r="Y42" s="49"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
       <c r="Z42" s="2" t="s">
         <v>0</v>
       </c>
@@ -4676,13 +4673,13 @@
         <v>4</v>
       </c>
       <c r="AE42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="49"/>
-      <c r="AJ42" s="49"/>
-      <c r="AK42" s="49"/>
+        <v>51</v>
+      </c>
+      <c r="AF42" s="52"/>
+      <c r="AG42" s="52"/>
+      <c r="AH42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
       <c r="AL42" s="2" t="s">
         <v>0</v>
       </c>
@@ -4699,13 +4696,13 @@
         <v>4</v>
       </c>
       <c r="AQ42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR42" s="41"/>
-      <c r="AS42" s="41"/>
-      <c r="AT42" s="49"/>
-    </row>
-    <row r="43" spans="2:46" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="AR42" s="53"/>
+      <c r="AS42" s="53"/>
+      <c r="AT42" s="51"/>
+    </row>
+    <row r="43" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
         <v>1</v>
       </c>
@@ -4731,7 +4728,7 @@
       <c r="J43" s="7">
         <v>0.85</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="40">
         <f>MAX(I43:J47)</f>
         <v>0.85</v>
       </c>
@@ -4760,7 +4757,7 @@
       <c r="U43" s="7">
         <v>0.65</v>
       </c>
-      <c r="V43" s="39">
+      <c r="V43" s="40">
         <f>MAX(T43:U47)</f>
         <v>0.7</v>
       </c>
@@ -4792,7 +4789,7 @@
       <c r="AG43" s="7">
         <v>0.9</v>
       </c>
-      <c r="AH43" s="39">
+      <c r="AH43" s="40">
         <f>MAX(AF43:AG47)</f>
         <v>0.9</v>
       </c>
@@ -4824,12 +4821,12 @@
       <c r="AS43" s="7">
         <v>0.88</v>
       </c>
-      <c r="AT43" s="39">
+      <c r="AT43" s="40">
         <f>MAX(AR43:AS47)</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="44" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
         <v>2</v>
       </c>
@@ -4855,7 +4852,7 @@
       <c r="J44" s="7">
         <v>0.8</v>
       </c>
-      <c r="K44" s="39"/>
+      <c r="K44" s="40"/>
       <c r="M44" s="3">
         <v>2</v>
       </c>
@@ -4881,7 +4878,7 @@
       <c r="U44" s="7">
         <v>0.6</v>
       </c>
-      <c r="V44" s="39"/>
+      <c r="V44" s="40"/>
       <c r="X44" s="3">
         <v>2</v>
       </c>
@@ -4910,7 +4907,7 @@
       <c r="AG44" s="7">
         <v>0.9</v>
       </c>
-      <c r="AH44" s="39"/>
+      <c r="AH44" s="40"/>
       <c r="AJ44" s="3">
         <v>2</v>
       </c>
@@ -4939,9 +4936,9 @@
       <c r="AS44" s="7">
         <v>0.88</v>
       </c>
-      <c r="AT44" s="39"/>
-    </row>
-    <row r="45" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT44" s="40"/>
+    </row>
+    <row r="45" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
         <v>3</v>
       </c>
@@ -4967,7 +4964,7 @@
       <c r="J45" s="7">
         <v>0.8</v>
       </c>
-      <c r="K45" s="39"/>
+      <c r="K45" s="40"/>
       <c r="M45" s="3">
         <v>3</v>
       </c>
@@ -4993,7 +4990,7 @@
       <c r="U45" s="7">
         <v>0.65</v>
       </c>
-      <c r="V45" s="39"/>
+      <c r="V45" s="40"/>
       <c r="X45" s="3">
         <v>3</v>
       </c>
@@ -5022,7 +5019,7 @@
       <c r="AG45" s="7">
         <v>0.9</v>
       </c>
-      <c r="AH45" s="39"/>
+      <c r="AH45" s="40"/>
       <c r="AJ45" s="3">
         <v>3</v>
       </c>
@@ -5051,9 +5048,9 @@
       <c r="AS45" s="7">
         <v>0.88</v>
       </c>
-      <c r="AT45" s="39"/>
-    </row>
-    <row r="46" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT45" s="40"/>
+    </row>
+    <row r="46" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
         <v>4</v>
       </c>
@@ -5079,7 +5076,7 @@
       <c r="J46" s="7">
         <v>0.8</v>
       </c>
-      <c r="K46" s="39"/>
+      <c r="K46" s="40"/>
       <c r="M46" s="3">
         <v>4</v>
       </c>
@@ -5105,7 +5102,7 @@
       <c r="U46" s="7">
         <v>0.7</v>
       </c>
-      <c r="V46" s="39"/>
+      <c r="V46" s="40"/>
       <c r="X46" s="3">
         <v>4</v>
       </c>
@@ -5134,7 +5131,7 @@
       <c r="AG46" s="7">
         <v>0.9</v>
       </c>
-      <c r="AH46" s="39"/>
+      <c r="AH46" s="40"/>
       <c r="AJ46" s="3">
         <v>4</v>
       </c>
@@ -5163,9 +5160,9 @@
       <c r="AS46" s="7">
         <v>0.88</v>
       </c>
-      <c r="AT46" s="39"/>
-    </row>
-    <row r="47" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT46" s="40"/>
+    </row>
+    <row r="47" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
         <v>5</v>
       </c>
@@ -5191,7 +5188,7 @@
       <c r="J47" s="7">
         <v>0.8</v>
       </c>
-      <c r="K47" s="39"/>
+      <c r="K47" s="40"/>
       <c r="M47" s="3">
         <v>5</v>
       </c>
@@ -5217,7 +5214,7 @@
       <c r="U47" s="7">
         <v>0.7</v>
       </c>
-      <c r="V47" s="39"/>
+      <c r="V47" s="40"/>
       <c r="X47" s="3">
         <v>5</v>
       </c>
@@ -5246,7 +5243,7 @@
       <c r="AG47" s="7">
         <v>0.9</v>
       </c>
-      <c r="AH47" s="39"/>
+      <c r="AH47" s="40"/>
       <c r="AJ47" s="3">
         <v>5</v>
       </c>
@@ -5275,9 +5272,9 @@
       <c r="AS47" s="7">
         <v>0.88</v>
       </c>
-      <c r="AT47" s="39"/>
-    </row>
-    <row r="48" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT47" s="40"/>
+    </row>
+    <row r="48" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B48" s="3">
         <v>6</v>
       </c>
@@ -5303,7 +5300,7 @@
       <c r="J48" s="9">
         <v>0.5</v>
       </c>
-      <c r="K48" s="50">
+      <c r="K48" s="36">
         <f>MAX(I48:J52)</f>
         <v>0.5</v>
       </c>
@@ -5332,7 +5329,7 @@
       <c r="U48" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V48" s="50">
+      <c r="V48" s="36">
         <f>MAX(T48:U52)</f>
         <v>0.7</v>
       </c>
@@ -5364,7 +5361,7 @@
       <c r="AG48" s="9">
         <v>0.87</v>
       </c>
-      <c r="AH48" s="50">
+      <c r="AH48" s="36">
         <f t="shared" ref="AH48" si="0">MAX(AF48:AG52)</f>
         <v>0.89</v>
       </c>
@@ -5396,12 +5393,12 @@
       <c r="AS48" s="9">
         <v>0.89</v>
       </c>
-      <c r="AT48" s="50">
+      <c r="AT48" s="36">
         <f>MAX(AR48:AS52)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B49" s="3">
         <v>7</v>
       </c>
@@ -5427,7 +5424,7 @@
       <c r="J49" s="9">
         <v>0.4</v>
       </c>
-      <c r="K49" s="50"/>
+      <c r="K49" s="36"/>
       <c r="M49" s="3">
         <v>7</v>
       </c>
@@ -5453,7 +5450,7 @@
       <c r="U49" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V49" s="50"/>
+      <c r="V49" s="36"/>
       <c r="X49" s="3">
         <v>7</v>
       </c>
@@ -5482,7 +5479,7 @@
       <c r="AG49" s="9">
         <v>0.89</v>
       </c>
-      <c r="AH49" s="50"/>
+      <c r="AH49" s="36"/>
       <c r="AJ49" s="3">
         <v>7</v>
       </c>
@@ -5511,9 +5508,9 @@
       <c r="AS49" s="9">
         <v>0.89</v>
       </c>
-      <c r="AT49" s="50"/>
-    </row>
-    <row r="50" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT49" s="36"/>
+    </row>
+    <row r="50" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B50" s="3">
         <v>8</v>
       </c>
@@ -5539,7 +5536,7 @@
       <c r="J50" s="9">
         <v>0.35</v>
       </c>
-      <c r="K50" s="50"/>
+      <c r="K50" s="36"/>
       <c r="M50" s="3">
         <v>8</v>
       </c>
@@ -5565,7 +5562,7 @@
       <c r="U50" s="9">
         <v>0.65</v>
       </c>
-      <c r="V50" s="50"/>
+      <c r="V50" s="36"/>
       <c r="X50" s="3">
         <v>8</v>
       </c>
@@ -5594,7 +5591,7 @@
       <c r="AG50" s="9">
         <v>0.89</v>
       </c>
-      <c r="AH50" s="50"/>
+      <c r="AH50" s="36"/>
       <c r="AJ50" s="3">
         <v>8</v>
       </c>
@@ -5623,9 +5620,9 @@
       <c r="AS50" s="31">
         <v>0.9</v>
       </c>
-      <c r="AT50" s="50"/>
-    </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT50" s="36"/>
+    </row>
+    <row r="51" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B51" s="3">
         <v>9</v>
       </c>
@@ -5651,7 +5648,7 @@
       <c r="J51" s="9">
         <v>0.35</v>
       </c>
-      <c r="K51" s="50"/>
+      <c r="K51" s="36"/>
       <c r="M51" s="3">
         <v>9</v>
       </c>
@@ -5677,7 +5674,7 @@
       <c r="U51" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V51" s="50"/>
+      <c r="V51" s="36"/>
       <c r="X51" s="3">
         <v>9</v>
       </c>
@@ -5706,7 +5703,7 @@
       <c r="AG51" s="9">
         <v>0.89</v>
       </c>
-      <c r="AH51" s="50"/>
+      <c r="AH51" s="36"/>
       <c r="AJ51" s="3">
         <v>9</v>
       </c>
@@ -5735,9 +5732,9 @@
       <c r="AS51" s="31">
         <v>0.9</v>
       </c>
-      <c r="AT51" s="50"/>
-    </row>
-    <row r="52" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT51" s="36"/>
+    </row>
+    <row r="52" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
         <v>10</v>
       </c>
@@ -5763,7 +5760,7 @@
       <c r="J52" s="9">
         <v>0.4</v>
       </c>
-      <c r="K52" s="50"/>
+      <c r="K52" s="36"/>
       <c r="M52" s="3">
         <v>10</v>
       </c>
@@ -5789,7 +5786,7 @@
       <c r="U52" s="9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V52" s="50"/>
+      <c r="V52" s="36"/>
       <c r="X52" s="3">
         <v>10</v>
       </c>
@@ -5818,7 +5815,7 @@
       <c r="AG52" s="9">
         <v>0.89</v>
       </c>
-      <c r="AH52" s="50"/>
+      <c r="AH52" s="36"/>
       <c r="AJ52" s="3">
         <v>10</v>
       </c>
@@ -5847,9 +5844,9 @@
       <c r="AS52" s="31">
         <v>0.9</v>
       </c>
-      <c r="AT52" s="50"/>
-    </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT52" s="36"/>
+    </row>
+    <row r="53" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
         <v>11</v>
       </c>
@@ -5875,7 +5872,7 @@
       <c r="J53" s="10">
         <v>0.45</v>
       </c>
-      <c r="K53" s="51">
+      <c r="K53" s="37">
         <f>MAX(I53:J57)</f>
         <v>0.5</v>
       </c>
@@ -5904,7 +5901,7 @@
       <c r="U53" s="10">
         <v>0.5</v>
       </c>
-      <c r="V53" s="51">
+      <c r="V53" s="37">
         <f>MAX(T53:U57)</f>
         <v>0.65</v>
       </c>
@@ -5936,7 +5933,7 @@
       <c r="AG53" s="10">
         <v>0.87</v>
       </c>
-      <c r="AH53" s="51">
+      <c r="AH53" s="37">
         <f t="shared" ref="AH53" si="1">MAX(AF53:AG57)</f>
         <v>0.89</v>
       </c>
@@ -5968,12 +5965,12 @@
       <c r="AS53" s="10">
         <v>0.89</v>
       </c>
-      <c r="AT53" s="51">
+      <c r="AT53" s="37">
         <f>MAX(AR53:AS57)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
         <v>12</v>
       </c>
@@ -5999,7 +5996,7 @@
       <c r="J54" s="10">
         <v>0.4</v>
       </c>
-      <c r="K54" s="51"/>
+      <c r="K54" s="37"/>
       <c r="M54" s="3">
         <v>12</v>
       </c>
@@ -6025,7 +6022,7 @@
       <c r="U54" s="10">
         <v>0.5</v>
       </c>
-      <c r="V54" s="51"/>
+      <c r="V54" s="37"/>
       <c r="X54" s="3">
         <v>12</v>
       </c>
@@ -6054,7 +6051,7 @@
       <c r="AG54" s="10">
         <v>0.89</v>
       </c>
-      <c r="AH54" s="51"/>
+      <c r="AH54" s="37"/>
       <c r="AJ54" s="3">
         <v>12</v>
       </c>
@@ -6083,9 +6080,9 @@
       <c r="AS54" s="10">
         <v>0.89</v>
       </c>
-      <c r="AT54" s="51"/>
-    </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT54" s="37"/>
+    </row>
+    <row r="55" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
         <v>13</v>
       </c>
@@ -6111,7 +6108,7 @@
       <c r="J55" s="10">
         <v>0.35</v>
       </c>
-      <c r="K55" s="51"/>
+      <c r="K55" s="37"/>
       <c r="M55" s="3">
         <v>13</v>
       </c>
@@ -6137,7 +6134,7 @@
       <c r="U55" s="10">
         <v>0.45</v>
       </c>
-      <c r="V55" s="51"/>
+      <c r="V55" s="37"/>
       <c r="X55" s="3">
         <v>13</v>
       </c>
@@ -6166,7 +6163,7 @@
       <c r="AG55" s="10">
         <v>0.89</v>
       </c>
-      <c r="AH55" s="51"/>
+      <c r="AH55" s="37"/>
       <c r="AJ55" s="3">
         <v>13</v>
       </c>
@@ -6195,9 +6192,9 @@
       <c r="AS55" s="32">
         <v>0.9</v>
       </c>
-      <c r="AT55" s="51"/>
-    </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT55" s="37"/>
+    </row>
+    <row r="56" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
         <v>14</v>
       </c>
@@ -6223,7 +6220,7 @@
       <c r="J56" s="10">
         <v>0.35</v>
       </c>
-      <c r="K56" s="51"/>
+      <c r="K56" s="37"/>
       <c r="M56" s="3">
         <v>14</v>
       </c>
@@ -6249,7 +6246,7 @@
       <c r="U56" s="10">
         <v>0.45</v>
       </c>
-      <c r="V56" s="51"/>
+      <c r="V56" s="37"/>
       <c r="X56" s="3">
         <v>14</v>
       </c>
@@ -6278,7 +6275,7 @@
       <c r="AG56" s="10">
         <v>0.89</v>
       </c>
-      <c r="AH56" s="51"/>
+      <c r="AH56" s="37"/>
       <c r="AJ56" s="3">
         <v>14</v>
       </c>
@@ -6307,9 +6304,9 @@
       <c r="AS56" s="32">
         <v>0.9</v>
       </c>
-      <c r="AT56" s="51"/>
-    </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT56" s="37"/>
+    </row>
+    <row r="57" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B57" s="3">
         <v>15</v>
       </c>
@@ -6335,7 +6332,7 @@
       <c r="J57" s="10">
         <v>0.35</v>
       </c>
-      <c r="K57" s="51"/>
+      <c r="K57" s="37"/>
       <c r="M57" s="3">
         <v>15</v>
       </c>
@@ -6361,7 +6358,7 @@
       <c r="U57" s="10">
         <v>0.5</v>
       </c>
-      <c r="V57" s="51"/>
+      <c r="V57" s="37"/>
       <c r="X57" s="3">
         <v>15</v>
       </c>
@@ -6390,7 +6387,7 @@
       <c r="AG57" s="10">
         <v>0.89</v>
       </c>
-      <c r="AH57" s="51"/>
+      <c r="AH57" s="37"/>
       <c r="AJ57" s="3">
         <v>15</v>
       </c>
@@ -6419,9 +6416,9 @@
       <c r="AS57" s="32">
         <v>0.9</v>
       </c>
-      <c r="AT57" s="51"/>
-    </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT57" s="37"/>
+    </row>
+    <row r="58" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B58" s="3">
         <v>16</v>
       </c>
@@ -6447,7 +6444,7 @@
       <c r="J58" s="11">
         <v>0.25</v>
       </c>
-      <c r="K58" s="52">
+      <c r="K58" s="38">
         <f>MAX(I58:J62)</f>
         <v>0.4</v>
       </c>
@@ -6476,7 +6473,7 @@
       <c r="U58" s="11">
         <v>0.6</v>
       </c>
-      <c r="V58" s="52">
+      <c r="V58" s="38">
         <f>MAX(T58:U62)</f>
         <v>0.6</v>
       </c>
@@ -6508,7 +6505,7 @@
       <c r="AG58" s="11">
         <v>0.86</v>
       </c>
-      <c r="AH58" s="52">
+      <c r="AH58" s="38">
         <f t="shared" ref="AH58" si="2">MAX(AF58:AG62)</f>
         <v>0.89</v>
       </c>
@@ -6540,12 +6537,12 @@
       <c r="AS58" s="11">
         <v>0.89</v>
       </c>
-      <c r="AT58" s="52">
+      <c r="AT58" s="38">
         <f>MAX(AR58:AS62)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B59" s="3">
         <v>17</v>
       </c>
@@ -6571,7 +6568,7 @@
       <c r="J59" s="11">
         <v>0.4</v>
       </c>
-      <c r="K59" s="52"/>
+      <c r="K59" s="38"/>
       <c r="M59" s="3">
         <v>17</v>
       </c>
@@ -6597,7 +6594,7 @@
       <c r="U59" s="11">
         <v>0.45</v>
       </c>
-      <c r="V59" s="52"/>
+      <c r="V59" s="38"/>
       <c r="X59" s="3">
         <v>17</v>
       </c>
@@ -6626,7 +6623,7 @@
       <c r="AG59" s="11">
         <v>0.88</v>
       </c>
-      <c r="AH59" s="52"/>
+      <c r="AH59" s="38"/>
       <c r="AJ59" s="3">
         <v>17</v>
       </c>
@@ -6655,9 +6652,9 @@
       <c r="AS59" s="11">
         <v>0.89</v>
       </c>
-      <c r="AT59" s="52"/>
-    </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT59" s="38"/>
+    </row>
+    <row r="60" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B60" s="3">
         <v>18</v>
       </c>
@@ -6683,7 +6680,7 @@
       <c r="J60" s="11">
         <v>0.35</v>
       </c>
-      <c r="K60" s="52"/>
+      <c r="K60" s="38"/>
       <c r="M60" s="3">
         <v>18</v>
       </c>
@@ -6709,7 +6706,7 @@
       <c r="U60" s="11">
         <v>0.4</v>
       </c>
-      <c r="V60" s="52"/>
+      <c r="V60" s="38"/>
       <c r="X60" s="3">
         <v>18</v>
       </c>
@@ -6738,7 +6735,7 @@
       <c r="AG60" s="11">
         <v>0.89</v>
       </c>
-      <c r="AH60" s="52"/>
+      <c r="AH60" s="38"/>
       <c r="AJ60" s="3">
         <v>18</v>
       </c>
@@ -6767,9 +6764,9 @@
       <c r="AS60" s="33">
         <v>0.9</v>
       </c>
-      <c r="AT60" s="52"/>
-    </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT60" s="38"/>
+    </row>
+    <row r="61" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B61" s="3">
         <v>19</v>
       </c>
@@ -6795,7 +6792,7 @@
       <c r="J61" s="11">
         <v>0.35</v>
       </c>
-      <c r="K61" s="52"/>
+      <c r="K61" s="38"/>
       <c r="M61" s="3">
         <v>19</v>
       </c>
@@ -6821,7 +6818,7 @@
       <c r="U61" s="11">
         <v>0.35</v>
       </c>
-      <c r="V61" s="52"/>
+      <c r="V61" s="38"/>
       <c r="X61" s="3">
         <v>19</v>
       </c>
@@ -6850,7 +6847,7 @@
       <c r="AG61" s="11">
         <v>0.89</v>
       </c>
-      <c r="AH61" s="52"/>
+      <c r="AH61" s="38"/>
       <c r="AJ61" s="3">
         <v>19</v>
       </c>
@@ -6879,9 +6876,9 @@
       <c r="AS61" s="33">
         <v>0.9</v>
       </c>
-      <c r="AT61" s="52"/>
-    </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT61" s="38"/>
+    </row>
+    <row r="62" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B62" s="3">
         <v>20</v>
       </c>
@@ -6907,7 +6904,7 @@
       <c r="J62" s="11">
         <v>0.35</v>
       </c>
-      <c r="K62" s="52"/>
+      <c r="K62" s="38"/>
       <c r="M62" s="3">
         <v>20</v>
       </c>
@@ -6933,7 +6930,7 @@
       <c r="U62" s="11">
         <v>0.35</v>
       </c>
-      <c r="V62" s="52"/>
+      <c r="V62" s="38"/>
       <c r="X62" s="3">
         <v>20</v>
       </c>
@@ -6962,7 +6959,7 @@
       <c r="AG62" s="11">
         <v>0.89</v>
       </c>
-      <c r="AH62" s="52"/>
+      <c r="AH62" s="38"/>
       <c r="AJ62" s="3">
         <v>20</v>
       </c>
@@ -6991,9 +6988,9 @@
       <c r="AS62" s="33">
         <v>0.9</v>
       </c>
-      <c r="AT62" s="52"/>
-    </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT62" s="38"/>
+    </row>
+    <row r="63" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B63" s="3">
         <v>21</v>
       </c>
@@ -7021,7 +7018,7 @@
       <c r="J63" s="5">
         <v>0.45</v>
       </c>
-      <c r="K63" s="53">
+      <c r="K63" s="39">
         <f>MAX(I63:J67)</f>
         <v>0.45</v>
       </c>
@@ -7052,7 +7049,7 @@
       <c r="U63" s="5">
         <v>0.65</v>
       </c>
-      <c r="V63" s="53">
+      <c r="V63" s="39">
         <f>MAX(T63:U67)</f>
         <v>0.65</v>
       </c>
@@ -7086,7 +7083,7 @@
       <c r="AG63" s="5">
         <v>0.87</v>
       </c>
-      <c r="AH63" s="53">
+      <c r="AH63" s="39">
         <f t="shared" ref="AH63" si="3">MAX(AF63:AG67)</f>
         <v>0.89</v>
       </c>
@@ -7120,12 +7117,12 @@
       <c r="AS63" s="5">
         <v>0.89</v>
       </c>
-      <c r="AT63" s="53">
+      <c r="AT63" s="39">
         <f>MAX(AR63:AS67)</f>
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B64" s="3">
         <v>22</v>
       </c>
@@ -7153,7 +7150,7 @@
       <c r="J64" s="5">
         <v>0.35</v>
       </c>
-      <c r="K64" s="53"/>
+      <c r="K64" s="39"/>
       <c r="M64" s="3">
         <v>22</v>
       </c>
@@ -7181,7 +7178,7 @@
       <c r="U64" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V64" s="53"/>
+      <c r="V64" s="39"/>
       <c r="X64" s="3">
         <v>22</v>
       </c>
@@ -7212,7 +7209,7 @@
       <c r="AG64" s="5">
         <v>0.89</v>
       </c>
-      <c r="AH64" s="53"/>
+      <c r="AH64" s="39"/>
       <c r="AJ64" s="3">
         <v>22</v>
       </c>
@@ -7243,9 +7240,9 @@
       <c r="AS64" s="5">
         <v>0.89</v>
       </c>
-      <c r="AT64" s="53"/>
-    </row>
-    <row r="65" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT64" s="39"/>
+    </row>
+    <row r="65" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B65" s="3">
         <v>23</v>
       </c>
@@ -7273,7 +7270,7 @@
       <c r="J65" s="5">
         <v>0.35</v>
       </c>
-      <c r="K65" s="53"/>
+      <c r="K65" s="39"/>
       <c r="M65" s="3">
         <v>23</v>
       </c>
@@ -7301,7 +7298,7 @@
       <c r="U65" s="5">
         <v>0.5</v>
       </c>
-      <c r="V65" s="53"/>
+      <c r="V65" s="39"/>
       <c r="X65" s="3">
         <v>23</v>
       </c>
@@ -7332,7 +7329,7 @@
       <c r="AG65" s="5">
         <v>0.89</v>
       </c>
-      <c r="AH65" s="53"/>
+      <c r="AH65" s="39"/>
       <c r="AJ65" s="3">
         <v>23</v>
       </c>
@@ -7363,9 +7360,9 @@
       <c r="AS65" s="34">
         <v>0.9</v>
       </c>
-      <c r="AT65" s="53"/>
-    </row>
-    <row r="66" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT65" s="39"/>
+    </row>
+    <row r="66" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B66" s="3">
         <v>24</v>
       </c>
@@ -7393,7 +7390,7 @@
       <c r="J66" s="5">
         <v>0.35</v>
       </c>
-      <c r="K66" s="53"/>
+      <c r="K66" s="39"/>
       <c r="M66" s="3">
         <v>24</v>
       </c>
@@ -7421,7 +7418,7 @@
       <c r="U66" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V66" s="53"/>
+      <c r="V66" s="39"/>
       <c r="X66" s="3">
         <v>24</v>
       </c>
@@ -7452,7 +7449,7 @@
       <c r="AG66" s="5">
         <v>0.89</v>
       </c>
-      <c r="AH66" s="53"/>
+      <c r="AH66" s="39"/>
       <c r="AJ66" s="3">
         <v>24</v>
       </c>
@@ -7483,9 +7480,9 @@
       <c r="AS66" s="34">
         <v>0.9</v>
       </c>
-      <c r="AT66" s="53"/>
-    </row>
-    <row r="67" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT66" s="39"/>
+    </row>
+    <row r="67" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B67" s="3">
         <v>25</v>
       </c>
@@ -7513,7 +7510,7 @@
       <c r="J67" s="5">
         <v>0.3</v>
       </c>
-      <c r="K67" s="53"/>
+      <c r="K67" s="39"/>
       <c r="M67" s="3">
         <v>25</v>
       </c>
@@ -7541,7 +7538,7 @@
       <c r="U67" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V67" s="53"/>
+      <c r="V67" s="39"/>
       <c r="X67" s="3">
         <v>25</v>
       </c>
@@ -7572,7 +7569,7 @@
       <c r="AG67" s="5">
         <v>0.89</v>
       </c>
-      <c r="AH67" s="53"/>
+      <c r="AH67" s="39"/>
       <c r="AJ67" s="3">
         <v>25</v>
       </c>
@@ -7603,9 +7600,9 @@
       <c r="AS67" s="34">
         <v>0.9</v>
       </c>
-      <c r="AT67" s="53"/>
-    </row>
-    <row r="68" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="AT67" s="39"/>
+    </row>
+    <row r="68" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B68" s="3">
         <v>19</v>
       </c>
@@ -7631,7 +7628,7 @@
       <c r="J68" s="11">
         <v>0.26</v>
       </c>
-      <c r="K68" s="52"/>
+      <c r="K68" s="38"/>
       <c r="M68" s="3">
         <v>19</v>
       </c>
@@ -7657,9 +7654,9 @@
       <c r="U68" s="11">
         <v>0.38</v>
       </c>
-      <c r="V68" s="52"/>
-    </row>
-    <row r="69" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="V68" s="38"/>
+    </row>
+    <row r="69" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B69" s="3">
         <v>20</v>
       </c>
@@ -7685,7 +7682,7 @@
       <c r="J69" s="11">
         <v>0.26</v>
       </c>
-      <c r="K69" s="52"/>
+      <c r="K69" s="38"/>
       <c r="M69" s="3">
         <v>20</v>
       </c>
@@ -7711,9 +7708,9 @@
       <c r="U69" s="11">
         <v>0.38</v>
       </c>
-      <c r="V69" s="52"/>
-    </row>
-    <row r="70" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="V69" s="38"/>
+    </row>
+    <row r="70" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B70" s="3">
         <v>21</v>
       </c>
@@ -7741,7 +7738,7 @@
       <c r="J70" s="5">
         <v>0.35</v>
       </c>
-      <c r="K70" s="53">
+      <c r="K70" s="39">
         <f t="shared" ref="K70" si="4">MAX(I70:J74)</f>
         <v>0.42</v>
       </c>
@@ -7772,12 +7769,12 @@
       <c r="U70" s="5">
         <v>0.56000000000000005</v>
       </c>
-      <c r="V70" s="53">
+      <c r="V70" s="39">
         <f>MAX(T70:U74)</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="71" spans="2:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B71" s="3">
         <v>22</v>
       </c>
@@ -7805,7 +7802,7 @@
       <c r="J71" s="5">
         <v>0.33</v>
       </c>
-      <c r="K71" s="53"/>
+      <c r="K71" s="39"/>
       <c r="M71" s="3">
         <v>22</v>
       </c>
@@ -7833,9 +7830,9 @@
       <c r="U71" s="5">
         <v>0.51</v>
       </c>
-      <c r="V71" s="53"/>
-    </row>
-    <row r="72" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="V71" s="39"/>
+    </row>
+    <row r="72" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B72" s="3">
         <v>23</v>
       </c>
@@ -7863,7 +7860,7 @@
       <c r="J72" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K72" s="53"/>
+      <c r="K72" s="39"/>
       <c r="M72" s="3">
         <v>23</v>
       </c>
@@ -7891,9 +7888,9 @@
       <c r="U72" s="5">
         <v>0.39</v>
       </c>
-      <c r="V72" s="53"/>
-    </row>
-    <row r="73" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="V72" s="39"/>
+    </row>
+    <row r="73" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B73" s="3">
         <v>24</v>
       </c>
@@ -7921,7 +7918,7 @@
       <c r="J73" s="5">
         <v>0.27</v>
       </c>
-      <c r="K73" s="53"/>
+      <c r="K73" s="39"/>
       <c r="M73" s="3">
         <v>24</v>
       </c>
@@ -7949,9 +7946,9 @@
       <c r="U73" s="5">
         <v>0.46</v>
       </c>
-      <c r="V73" s="53"/>
-    </row>
-    <row r="74" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="V73" s="39"/>
+    </row>
+    <row r="74" spans="2:46" x14ac:dyDescent="0.3">
       <c r="B74" s="3">
         <v>25</v>
       </c>
@@ -7979,7 +7976,7 @@
       <c r="J74" s="5">
         <v>0.32</v>
       </c>
-      <c r="K74" s="53"/>
+      <c r="K74" s="39"/>
       <c r="M74" s="3">
         <v>25</v>
       </c>
@@ -8007,7 +8004,7 @@
       <c r="U74" s="5">
         <v>0.47</v>
       </c>
-      <c r="V74" s="53"/>
+      <c r="V74" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="102">
@@ -8023,6 +8020,9 @@
     <mergeCell ref="V58:V62"/>
     <mergeCell ref="V63:V67"/>
     <mergeCell ref="Z41:AD41"/>
+    <mergeCell ref="K58:K62"/>
+    <mergeCell ref="K63:K67"/>
+    <mergeCell ref="AH48:AH52"/>
     <mergeCell ref="B3:V4"/>
     <mergeCell ref="X3:AT4"/>
     <mergeCell ref="X7:AH8"/>
@@ -8032,8 +8032,6 @@
     <mergeCell ref="K43:K47"/>
     <mergeCell ref="K48:K52"/>
     <mergeCell ref="K53:K57"/>
-    <mergeCell ref="K58:K62"/>
-    <mergeCell ref="K63:K67"/>
     <mergeCell ref="V43:V47"/>
     <mergeCell ref="V48:V52"/>
     <mergeCell ref="V41:V42"/>
@@ -8066,6 +8064,15 @@
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="B39:K40"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AR41:AR42"/>
+    <mergeCell ref="AS41:AS42"/>
+    <mergeCell ref="AT41:AT42"/>
+    <mergeCell ref="AT43:AT47"/>
     <mergeCell ref="AJ7:AT8"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="Y9:Y10"/>
@@ -8079,6 +8086,10 @@
     <mergeCell ref="AT9:AT10"/>
     <mergeCell ref="Z9:AD9"/>
     <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AT48:AT52"/>
+    <mergeCell ref="AH53:AH57"/>
+    <mergeCell ref="AT53:AT57"/>
+    <mergeCell ref="AH58:AH62"/>
     <mergeCell ref="AT58:AT62"/>
     <mergeCell ref="AH63:AH67"/>
     <mergeCell ref="AT63:AT67"/>
@@ -8092,27 +8103,13 @@
     <mergeCell ref="AH31:AH35"/>
     <mergeCell ref="AT31:AT35"/>
     <mergeCell ref="AL41:AP41"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="O41:S41"/>
-    <mergeCell ref="D41:H41"/>
     <mergeCell ref="AH43:AH47"/>
     <mergeCell ref="AH11:AH15"/>
-    <mergeCell ref="T9:T10"/>
     <mergeCell ref="X39:AH40"/>
     <mergeCell ref="AJ39:AT40"/>
     <mergeCell ref="X41:X42"/>
     <mergeCell ref="Y41:Y42"/>
     <mergeCell ref="AK41:AK42"/>
-    <mergeCell ref="AR41:AR42"/>
-    <mergeCell ref="AS41:AS42"/>
-    <mergeCell ref="AT41:AT42"/>
-    <mergeCell ref="AT43:AT47"/>
-    <mergeCell ref="AH48:AH52"/>
-    <mergeCell ref="AT48:AT52"/>
-    <mergeCell ref="AH53:AH57"/>
-    <mergeCell ref="AT53:AT57"/>
-    <mergeCell ref="AH58:AH62"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8128,37 +8125,37 @@
       <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="25" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
@@ -8166,21 +8163,21 @@
       <c r="F2" s="73"/>
       <c r="G2" s="73"/>
       <c r="I2" s="73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="73"/>
       <c r="K2" s="73"/>
       <c r="L2" s="73"/>
       <c r="M2" s="73"/>
       <c r="O2" s="73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P2" s="73"/>
       <c r="Q2" s="73"/>
       <c r="R2" s="73"/>
       <c r="S2" s="73"/>
     </row>
-    <row r="3" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
@@ -8198,75 +8195,75 @@
       <c r="R3" s="73"/>
       <c r="S3" s="73"/>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="49" t="s">
+      <c r="D4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="49" t="s">
+      <c r="F4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="49" t="s">
+      <c r="I4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="49" t="s">
+      <c r="K4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="49" t="s">
+      <c r="O4" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="49" t="s">
+      <c r="P4" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="R4" s="49" t="s">
+      <c r="Q4" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="49" t="s">
+      <c r="S4" s="51" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -8274,7 +8271,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -8282,7 +8279,7 @@
       <c r="F6" s="7">
         <v>0.75</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="40">
         <f>MAX(E6:F7)</f>
         <v>1</v>
       </c>
@@ -8293,7 +8290,7 @@
         <v>9</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7">
         <v>0.88</v>
@@ -8308,7 +8305,7 @@
         <v>9</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R6" s="7">
         <v>0.83</v>
@@ -8317,13 +8314,13 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="71"/>
       <c r="D7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7">
         <v>0.7</v>
@@ -8331,13 +8328,13 @@
       <c r="F7" s="7">
         <v>0.6</v>
       </c>
-      <c r="G7" s="39"/>
+      <c r="G7" s="40"/>
       <c r="I7" s="3">
         <v>2</v>
       </c>
       <c r="J7" s="71"/>
       <c r="K7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7">
         <v>0.6</v>
@@ -8350,7 +8347,7 @@
       </c>
       <c r="P7" s="71"/>
       <c r="Q7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R7" s="7">
         <v>0.6</v>
@@ -8359,7 +8356,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -8367,7 +8364,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8">
         <v>0.88</v>
@@ -8375,7 +8372,7 @@
       <c r="F8" s="8">
         <v>0.62</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="36">
         <f>MAX(E8:F9)</f>
         <v>0.88</v>
       </c>
@@ -8386,7 +8383,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" s="8">
         <v>0.62</v>
@@ -8401,7 +8398,7 @@
         <v>8</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R8" s="8">
         <v>0.57999999999999996</v>
@@ -8410,13 +8407,13 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="70"/>
       <c r="D9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="8">
         <v>0.45</v>
@@ -8424,13 +8421,13 @@
       <c r="F9" s="8">
         <v>0.45</v>
       </c>
-      <c r="G9" s="50"/>
+      <c r="G9" s="36"/>
       <c r="I9" s="3">
         <v>4</v>
       </c>
       <c r="J9" s="70"/>
       <c r="K9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="9">
         <v>0.3</v>
@@ -8443,7 +8440,7 @@
       </c>
       <c r="P9" s="70"/>
       <c r="Q9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R9" s="8">
         <v>0.32</v>
@@ -8452,156 +8449,156 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="11" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="N12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="49" t="s">
+    <row r="11" spans="2:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="N12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49" t="s">
-        <v>43</v>
+      <c r="D14" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="H14" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="72" t="s">
+      <c r="J14" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="O14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49" t="s">
-        <v>43</v>
+      <c r="P14" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51" t="s">
+        <v>42</v>
       </c>
       <c r="T14" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="U14" s="72" t="s">
+      <c r="V14" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="V14" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="W14" s="49" t="s">
+      <c r="W14" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="X14" s="49" t="s">
+      <c r="X14" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
       <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="49"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72"/>
       <c r="J15" s="72"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
       <c r="P15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S15" s="49"/>
+      <c r="S15" s="51"/>
       <c r="T15" s="72"/>
       <c r="U15" s="72"/>
       <c r="V15" s="72"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="49"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>1</v>
       </c>
@@ -8635,7 +8632,7 @@
       <c r="K16" s="7">
         <v>0.8</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="40">
         <f>MAX(K16:K18)</f>
         <v>0.8</v>
       </c>
@@ -8672,12 +8669,12 @@
       <c r="W16" s="7">
         <v>0.84</v>
       </c>
-      <c r="X16" s="39">
+      <c r="X16" s="40">
         <f>MAX(W16:W18)</f>
         <v>0.92</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="3">
         <v>2</v>
       </c>
@@ -8709,7 +8706,7 @@
       <c r="K17" s="7">
         <v>0.75</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="40"/>
       <c r="N17" s="3">
         <v>2</v>
       </c>
@@ -8741,9 +8738,9 @@
       <c r="W17" s="7">
         <v>0.92</v>
       </c>
-      <c r="X17" s="39"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X17" s="40"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>3</v>
       </c>
@@ -8775,7 +8772,7 @@
       <c r="K18" s="7">
         <v>0.7</v>
       </c>
-      <c r="L18" s="39"/>
+      <c r="L18" s="40"/>
       <c r="N18" s="3">
         <v>3</v>
       </c>
@@ -8807,9 +8804,9 @@
       <c r="W18" s="7">
         <v>0.9</v>
       </c>
-      <c r="X18" s="39"/>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X18" s="40"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>4</v>
       </c>
@@ -8843,7 +8840,7 @@
       <c r="K19" s="9">
         <v>0.75</v>
       </c>
-      <c r="L19" s="50">
+      <c r="L19" s="36">
         <f>MAX(K19:K21)</f>
         <v>0.9</v>
       </c>
@@ -8880,12 +8877,12 @@
       <c r="W19" s="9">
         <v>0.71</v>
       </c>
-      <c r="X19" s="50">
+      <c r="X19" s="36">
         <f>MAX(W19:W21)</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>5</v>
       </c>
@@ -8917,7 +8914,7 @@
       <c r="K20" s="9">
         <v>0.9</v>
       </c>
-      <c r="L20" s="50"/>
+      <c r="L20" s="36"/>
       <c r="N20" s="3">
         <v>5</v>
       </c>
@@ -8949,9 +8946,9 @@
       <c r="W20" s="9">
         <v>0.86</v>
       </c>
-      <c r="X20" s="50"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X20" s="36"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>6</v>
       </c>
@@ -8983,7 +8980,7 @@
       <c r="K21" s="9">
         <v>0.9</v>
       </c>
-      <c r="L21" s="50"/>
+      <c r="L21" s="36"/>
       <c r="N21" s="3">
         <v>6</v>
       </c>
@@ -9015,157 +9012,157 @@
       <c r="W21" s="9">
         <v>0.88</v>
       </c>
-      <c r="X21" s="50"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="X21" s="36"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="N24" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="N24" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="45"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="48"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="49" t="s">
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="47"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="50"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="49" t="s">
+      <c r="D26" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49" t="s">
-        <v>43</v>
-      </c>
       <c r="H26" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="72" t="s">
+      <c r="J26" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="J26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="49" t="s">
+      <c r="K26" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="L26" s="49" t="s">
+      <c r="L26" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="O26" s="49" t="s">
+      <c r="O26" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P26" s="49" t="s">
+      <c r="P26" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49" t="s">
-        <v>43</v>
-      </c>
       <c r="T26" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="U26" s="72" t="s">
+      <c r="V26" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="V26" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="W26" s="49" t="s">
+      <c r="W26" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="X26" s="49" t="s">
+      <c r="X26" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="49"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
       <c r="J27" s="72"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
       <c r="P27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S27" s="49"/>
+      <c r="S27" s="51"/>
       <c r="T27" s="72"/>
       <c r="U27" s="72"/>
       <c r="V27" s="72"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="49"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>1</v>
       </c>
@@ -9199,7 +9196,7 @@
       <c r="K28" s="7">
         <v>0.8</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="40">
         <f>MAX(K28:K30)</f>
         <v>0.8</v>
       </c>
@@ -9236,12 +9233,12 @@
       <c r="W28" s="7">
         <v>0.76</v>
       </c>
-      <c r="X28" s="39">
+      <c r="X28" s="40">
         <f>MAX(W28:W30)</f>
         <v>0.84</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>2</v>
       </c>
@@ -9273,7 +9270,7 @@
       <c r="K29" s="7">
         <v>0.65</v>
       </c>
-      <c r="L29" s="39"/>
+      <c r="L29" s="40"/>
       <c r="N29" s="3">
         <v>2</v>
       </c>
@@ -9305,9 +9302,9 @@
       <c r="W29" s="7">
         <v>0.83</v>
       </c>
-      <c r="X29" s="39"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X29" s="40"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>3</v>
       </c>
@@ -9339,7 +9336,7 @@
       <c r="K30" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L30" s="39"/>
+      <c r="L30" s="40"/>
       <c r="N30" s="3">
         <v>3</v>
       </c>
@@ -9371,9 +9368,9 @@
       <c r="W30" s="7">
         <v>0.84</v>
       </c>
-      <c r="X30" s="39"/>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X30" s="40"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>1</v>
       </c>
@@ -9407,7 +9404,7 @@
       <c r="K31" s="9">
         <v>0.8</v>
       </c>
-      <c r="L31" s="50">
+      <c r="L31" s="36">
         <f>MAX(K31:K33)</f>
         <v>0.9</v>
       </c>
@@ -9444,12 +9441,12 @@
       <c r="W31" s="9">
         <v>0.71</v>
       </c>
-      <c r="X31" s="50">
+      <c r="X31" s="36">
         <f>MAX(W31:W33)</f>
         <v>0.88</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B32" s="3">
         <v>2</v>
       </c>
@@ -9481,7 +9478,7 @@
       <c r="K32" s="9">
         <v>0.9</v>
       </c>
-      <c r="L32" s="50"/>
+      <c r="L32" s="36"/>
       <c r="N32" s="3">
         <v>2</v>
       </c>
@@ -9513,9 +9510,9 @@
       <c r="W32" s="9">
         <v>0.8</v>
       </c>
-      <c r="X32" s="50"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="X32" s="36"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>3</v>
       </c>
@@ -9547,7 +9544,7 @@
       <c r="K33" s="9">
         <v>0.9</v>
       </c>
-      <c r="L33" s="50"/>
+      <c r="L33" s="36"/>
       <c r="N33" s="3">
         <v>3</v>
       </c>
@@ -9579,7 +9576,7 @@
       <c r="W33" s="9">
         <v>0.88</v>
       </c>
-      <c r="X33" s="50"/>
+      <c r="X33" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="83">
@@ -9676,46 +9673,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F4DBF9-94E4-44F5-951E-C573EC9AA69A}">
   <dimension ref="C3:AL72"/>
   <sheetViews>
-    <sheetView topLeftCell="W4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView topLeftCell="K27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK31" sqref="AK31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C3" s="73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
@@ -9726,38 +9723,38 @@
       <c r="J3" s="73"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
+      <c r="M3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-    </row>
-    <row r="4" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AA3" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+    </row>
+    <row r="4" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C4" s="73"/>
       <c r="D4" s="73"/>
       <c r="E4" s="73"/>
@@ -9768,136 +9765,136 @@
       <c r="J4" s="73"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-    </row>
-    <row r="5" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+    </row>
+    <row r="5" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="49" t="s">
+      <c r="D5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="H5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="51" t="s">
         <v>13</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="49" t="s">
+      <c r="N5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49" t="s">
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51" t="s">
         <v>4</v>
       </c>
       <c r="T5" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="72" t="s">
+      <c r="V5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="49" t="s">
+      <c r="W5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="49" t="s">
+      <c r="X5" s="51" t="s">
         <v>13</v>
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="49" t="s">
+      <c r="AA5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AB5" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="49" t="s">
+      <c r="AB5" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49" t="s">
+      <c r="AD5" s="51"/>
+      <c r="AE5" s="51"/>
+      <c r="AF5" s="51"/>
+      <c r="AG5" s="51" t="s">
         <v>4</v>
       </c>
       <c r="AH5" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AI5" s="72" t="s">
+      <c r="AJ5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AJ5" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK5" s="49" t="s">
+      <c r="AK5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AL5" s="49" t="s">
+      <c r="AL5" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+    <row r="6" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="72"/>
       <c r="G6" s="72"/>
       <c r="H6" s="72"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
       <c r="O6" s="2" t="s">
         <v>0</v>
       </c>
@@ -9910,16 +9907,16 @@
       <c r="R6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S6" s="49"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="72"/>
       <c r="U6" s="72"/>
       <c r="V6" s="72"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="49"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="49"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
       <c r="AC6" s="2" t="s">
         <v>0</v>
       </c>
@@ -9932,14 +9929,14 @@
       <c r="AF6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG6" s="49"/>
+      <c r="AG6" s="51"/>
       <c r="AH6" s="72"/>
       <c r="AI6" s="72"/>
       <c r="AJ6" s="72"/>
-      <c r="AK6" s="49"/>
-      <c r="AL6" s="49"/>
-    </row>
-    <row r="7" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+    </row>
+    <row r="7" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>1</v>
       </c>
@@ -9964,7 +9961,7 @@
       <c r="I7" s="6">
         <v>0.24</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="40">
         <f>MAX(I7:I11)</f>
         <v>0.37</v>
       </c>
@@ -9974,7 +9971,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="23" t="s">
         <v>10</v>
@@ -10002,7 +9999,7 @@
       <c r="W7" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X7" s="39">
+      <c r="X7" s="40">
         <f>MAX(W7:W11)</f>
         <v>0.4</v>
       </c>
@@ -10012,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="AB7" s="74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC7" s="23" t="s">
         <v>10</v>
@@ -10042,12 +10039,12 @@
       <c r="AK7" s="7">
         <v>0.32</v>
       </c>
-      <c r="AL7" s="39">
+      <c r="AL7" s="40">
         <f>MAX(AK7:AK11)</f>
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>2</v>
       </c>
@@ -10070,7 +10067,7 @@
       <c r="I8" s="6">
         <v>0.26</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="3">
@@ -10103,7 +10100,7 @@
       <c r="W8" s="7">
         <v>0.4</v>
       </c>
-      <c r="X8" s="39"/>
+      <c r="X8" s="40"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
@@ -10138,9 +10135,9 @@
       <c r="AK8" s="7">
         <v>0.36</v>
       </c>
-      <c r="AL8" s="39"/>
-    </row>
-    <row r="9" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL8" s="40"/>
+    </row>
+    <row r="9" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>3</v>
       </c>
@@ -10163,7 +10160,7 @@
       <c r="I9" s="6">
         <v>0.37</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="3">
@@ -10196,7 +10193,7 @@
       <c r="W9" s="7">
         <v>0.4</v>
       </c>
-      <c r="X9" s="39"/>
+      <c r="X9" s="40"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="3">
@@ -10231,9 +10228,9 @@
       <c r="AK9" s="7">
         <v>0.37</v>
       </c>
-      <c r="AL9" s="39"/>
-    </row>
-    <row r="10" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL9" s="40"/>
+    </row>
+    <row r="10" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -10256,7 +10253,7 @@
       <c r="I10" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3">
@@ -10289,7 +10286,7 @@
       <c r="W10" s="7">
         <v>0.38</v>
       </c>
-      <c r="X10" s="39"/>
+      <c r="X10" s="40"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="3">
@@ -10324,9 +10321,9 @@
       <c r="AK10" s="7">
         <v>0.35</v>
       </c>
-      <c r="AL10" s="39"/>
-    </row>
-    <row r="11" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL10" s="40"/>
+    </row>
+    <row r="11" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>5</v>
       </c>
@@ -10349,7 +10346,7 @@
       <c r="I11" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J11" s="39"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="3">
@@ -10382,7 +10379,7 @@
       <c r="W11" s="7">
         <v>0.35</v>
       </c>
-      <c r="X11" s="39"/>
+      <c r="X11" s="40"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="3">
@@ -10417,13 +10414,13 @@
       <c r="AK11" s="7">
         <v>0.32</v>
       </c>
-      <c r="AL11" s="39"/>
-    </row>
-    <row r="12" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL11" s="40"/>
+    </row>
+    <row r="12" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>6</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="36" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3">
@@ -10444,7 +10441,7 @@
       <c r="I12" s="8">
         <v>0.22</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="36">
         <f>MAX(I12:I16)</f>
         <v>0.24</v>
       </c>
@@ -10480,7 +10477,7 @@
       <c r="W12" s="9">
         <v>0.35</v>
       </c>
-      <c r="X12" s="50">
+      <c r="X12" s="36">
         <f>MAX(W12:W16)</f>
         <v>0.39</v>
       </c>
@@ -10518,16 +10515,16 @@
       <c r="AK12" s="9">
         <v>0.24</v>
       </c>
-      <c r="AL12" s="50">
+      <c r="AL12" s="36">
         <f>MAX(AK12:AK16)</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="13" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="3">
         <v>2</v>
       </c>
@@ -10546,7 +10543,7 @@
       <c r="I13" s="8">
         <v>0.24</v>
       </c>
-      <c r="J13" s="50"/>
+      <c r="J13" s="36"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3">
@@ -10579,7 +10576,7 @@
       <c r="W13" s="9">
         <v>0.39</v>
       </c>
-      <c r="X13" s="50"/>
+      <c r="X13" s="36"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
@@ -10614,13 +10611,13 @@
       <c r="AK13" s="9">
         <v>0.21</v>
       </c>
-      <c r="AL13" s="50"/>
-    </row>
-    <row r="14" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL13" s="36"/>
+    </row>
+    <row r="14" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="3">
         <v>3</v>
       </c>
@@ -10639,7 +10636,7 @@
       <c r="I14" s="8">
         <v>0.21</v>
       </c>
-      <c r="J14" s="50"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="3">
@@ -10672,7 +10669,7 @@
       <c r="W14" s="9">
         <v>0.36</v>
       </c>
-      <c r="X14" s="50"/>
+      <c r="X14" s="36"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="3">
@@ -10707,13 +10704,13 @@
       <c r="AK14" s="9">
         <v>0.36</v>
       </c>
-      <c r="AL14" s="50"/>
-    </row>
-    <row r="15" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL14" s="36"/>
+    </row>
+    <row r="15" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>9</v>
       </c>
-      <c r="D15" s="50"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="3">
         <v>4</v>
       </c>
@@ -10732,7 +10729,7 @@
       <c r="I15" s="8">
         <v>0.18</v>
       </c>
-      <c r="J15" s="50"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3">
@@ -10765,7 +10762,7 @@
       <c r="W15" s="9">
         <v>0.33</v>
       </c>
-      <c r="X15" s="50"/>
+      <c r="X15" s="36"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="3">
@@ -10800,13 +10797,13 @@
       <c r="AK15" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AL15" s="50"/>
-    </row>
-    <row r="16" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL15" s="36"/>
+    </row>
+    <row r="16" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>10</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="3">
         <v>5</v>
       </c>
@@ -10825,7 +10822,7 @@
       <c r="I16" s="8">
         <v>0.23</v>
       </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="3">
@@ -10858,7 +10855,7 @@
       <c r="W16" s="9">
         <v>0.32</v>
       </c>
-      <c r="X16" s="50"/>
+      <c r="X16" s="36"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
@@ -10893,13 +10890,13 @@
       <c r="AK16" s="9">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AL16" s="50"/>
-    </row>
-    <row r="17" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL16" s="36"/>
+    </row>
+    <row r="17" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>11</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E17" s="3">
@@ -10920,7 +10917,7 @@
       <c r="I17" s="10">
         <v>0.59</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="37">
         <f>MAX(I17:I21)</f>
         <v>0.59</v>
       </c>
@@ -10956,7 +10953,7 @@
       <c r="W17" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X17" s="51">
+      <c r="X17" s="37">
         <f>MAX(W17:W21)</f>
         <v>0.28999999999999998</v>
       </c>
@@ -10994,16 +10991,16 @@
       <c r="AK17" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AL17" s="51">
+      <c r="AL17" s="37">
         <f>MAX(AK17:AK21)</f>
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>12</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="3">
         <v>2</v>
       </c>
@@ -11022,7 +11019,7 @@
       <c r="I18" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J18" s="51"/>
+      <c r="J18" s="37"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="3">
@@ -11055,7 +11052,7 @@
       <c r="W18" s="10">
         <v>0.22</v>
       </c>
-      <c r="X18" s="51"/>
+      <c r="X18" s="37"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="3">
@@ -11090,13 +11087,13 @@
       <c r="AK18" s="10">
         <v>0.23</v>
       </c>
-      <c r="AL18" s="51"/>
-    </row>
-    <row r="19" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL18" s="37"/>
+    </row>
+    <row r="19" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>13</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="3">
         <v>3</v>
       </c>
@@ -11115,7 +11112,7 @@
       <c r="I19" s="10">
         <v>0.27</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="37"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="3">
@@ -11148,7 +11145,7 @@
       <c r="W19" s="10">
         <v>0.25</v>
       </c>
-      <c r="X19" s="51"/>
+      <c r="X19" s="37"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="3">
@@ -11183,13 +11180,13 @@
       <c r="AK19" s="10">
         <v>0.26</v>
       </c>
-      <c r="AL19" s="51"/>
-    </row>
-    <row r="20" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL19" s="37"/>
+    </row>
+    <row r="20" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="3">
         <v>4</v>
       </c>
@@ -11208,7 +11205,7 @@
       <c r="I20" s="10">
         <v>0.36</v>
       </c>
-      <c r="J20" s="51"/>
+      <c r="J20" s="37"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="3">
@@ -11241,7 +11238,7 @@
       <c r="W20" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X20" s="51"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="3">
@@ -11276,13 +11273,13 @@
       <c r="AK20" s="10">
         <v>0.27</v>
       </c>
-      <c r="AL20" s="51"/>
-    </row>
-    <row r="21" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL20" s="37"/>
+    </row>
+    <row r="21" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>15</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="3">
         <v>5</v>
       </c>
@@ -11301,7 +11298,7 @@
       <c r="I21" s="10">
         <v>0.34</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="37"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="3">
@@ -11334,7 +11331,7 @@
       <c r="W21" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="X21" s="51"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="3">
@@ -11369,13 +11366,13 @@
       <c r="AK21" s="10">
         <v>0.26</v>
       </c>
-      <c r="AL21" s="51"/>
-    </row>
-    <row r="22" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL21" s="37"/>
+    </row>
+    <row r="22" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>16</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="3">
@@ -11396,7 +11393,7 @@
       <c r="I22" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J22" s="52">
+      <c r="J22" s="38">
         <f>MAX(I22:I26)</f>
         <v>0.28000000000000003</v>
       </c>
@@ -11470,16 +11467,16 @@
       <c r="AK22" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AL22" s="52">
+      <c r="AL22" s="38">
         <f>MAX(AK22:AK26)</f>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>17</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="3">
         <v>2</v>
       </c>
@@ -11498,7 +11495,7 @@
       <c r="I23" s="11">
         <v>0.23</v>
       </c>
-      <c r="J23" s="52"/>
+      <c r="J23" s="38"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="3">
@@ -11566,13 +11563,13 @@
       <c r="AK23" s="11">
         <v>0.21</v>
       </c>
-      <c r="AL23" s="52"/>
-    </row>
-    <row r="24" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL23" s="38"/>
+    </row>
+    <row r="24" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>18</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="3">
         <v>3</v>
       </c>
@@ -11591,7 +11588,7 @@
       <c r="I24" s="11">
         <v>0.24</v>
       </c>
-      <c r="J24" s="52"/>
+      <c r="J24" s="38"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="3">
@@ -11659,13 +11656,13 @@
       <c r="AK24" s="11">
         <v>0.27</v>
       </c>
-      <c r="AL24" s="52"/>
-    </row>
-    <row r="25" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL24" s="38"/>
+    </row>
+    <row r="25" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>19</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="3">
         <v>4</v>
       </c>
@@ -11684,7 +11681,7 @@
       <c r="I25" s="11">
         <v>0.27</v>
       </c>
-      <c r="J25" s="52"/>
+      <c r="J25" s="38"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="3">
@@ -11752,13 +11749,13 @@
       <c r="AK25" s="11">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AL25" s="52"/>
-    </row>
-    <row r="26" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL25" s="38"/>
+    </row>
+    <row r="26" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>20</v>
       </c>
-      <c r="D26" s="52"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="3">
         <v>5</v>
       </c>
@@ -11777,7 +11774,7 @@
       <c r="I26" s="11">
         <v>0.23</v>
       </c>
-      <c r="J26" s="52"/>
+      <c r="J26" s="38"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="3">
@@ -11845,9 +11842,9 @@
       <c r="AK26" s="11">
         <v>0.24</v>
       </c>
-      <c r="AL26" s="52"/>
-    </row>
-    <row r="27" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="AL26" s="38"/>
+    </row>
+    <row r="27" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -11888,7 +11885,7 @@
       <c r="W27" s="11">
         <v>0.28999999999999998</v>
       </c>
-      <c r="X27" s="52">
+      <c r="X27" s="38">
         <f>MAX(W27:W31)</f>
         <v>0.3</v>
       </c>
@@ -11898,7 +11895,7 @@
         <v>21</v>
       </c>
       <c r="AB27" s="74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC27" s="28" t="s">
         <v>10</v>
@@ -11930,12 +11927,12 @@
       <c r="AK27" s="22">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AL27" s="53">
+      <c r="AL27" s="39">
         <f>MAX(AK27:AK31)</f>
         <v>0.33</v>
       </c>
     </row>
-    <row r="28" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+    <row r="28" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -11976,7 +11973,7 @@
       <c r="W28" s="11">
         <v>0.19</v>
       </c>
-      <c r="X28" s="52"/>
+      <c r="X28" s="38"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
@@ -12013,9 +12010,9 @@
       <c r="AK28" s="5">
         <v>0.23</v>
       </c>
-      <c r="AL28" s="53"/>
-    </row>
-    <row r="29" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="AL28" s="39"/>
+    </row>
+    <row r="29" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -12056,7 +12053,7 @@
       <c r="W29" s="11">
         <v>0.25</v>
       </c>
-      <c r="X29" s="52"/>
+      <c r="X29" s="38"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="3">
@@ -12093,9 +12090,9 @@
       <c r="AK29" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AL29" s="53"/>
-    </row>
-    <row r="30" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL29" s="39"/>
+    </row>
+    <row r="30" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -12136,7 +12133,7 @@
       <c r="W30" s="11">
         <v>0.3</v>
       </c>
-      <c r="X30" s="52"/>
+      <c r="X30" s="38"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="3">
@@ -12173,9 +12170,9 @@
       <c r="AK30" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AL30" s="53"/>
-    </row>
-    <row r="31" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL30" s="39"/>
+    </row>
+    <row r="31" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -12216,7 +12213,7 @@
       <c r="W31" s="11">
         <v>0.3</v>
       </c>
-      <c r="X31" s="52"/>
+      <c r="X31" s="38"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="3">
@@ -12253,9 +12250,9 @@
       <c r="AK31" s="5">
         <v>0.33</v>
       </c>
-      <c r="AL31" s="53"/>
-    </row>
-    <row r="32" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL31" s="39"/>
+    </row>
+    <row r="32" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -12296,7 +12293,7 @@
       <c r="W32" s="5">
         <v>0.24</v>
       </c>
-      <c r="X32" s="53">
+      <c r="X32" s="39">
         <f>MAX(W32:W36)</f>
         <v>0.28000000000000003</v>
       </c>
@@ -12315,7 +12312,7 @@
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
     </row>
-    <row r="33" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -12356,7 +12353,7 @@
       <c r="W33" s="5">
         <v>0.23</v>
       </c>
-      <c r="X33" s="53"/>
+      <c r="X33" s="39"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -12372,7 +12369,7 @@
       <c r="AK33" s="1"/>
       <c r="AL33" s="1"/>
     </row>
-    <row r="34" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -12413,7 +12410,7 @@
       <c r="W34" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X34" s="53"/>
+      <c r="X34" s="39"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
@@ -12429,7 +12426,7 @@
       <c r="AK34" s="1"/>
       <c r="AL34" s="1"/>
     </row>
-    <row r="35" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+    <row r="35" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -12470,7 +12467,7 @@
       <c r="W35" s="5">
         <v>0.26</v>
       </c>
-      <c r="X35" s="53"/>
+      <c r="X35" s="39"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
@@ -12486,7 +12483,7 @@
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
     </row>
-    <row r="36" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+    <row r="36" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -12527,7 +12524,7 @@
       <c r="W36" s="5">
         <v>0.26</v>
       </c>
-      <c r="X36" s="53"/>
+      <c r="X36" s="39"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
@@ -12543,7 +12540,7 @@
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
     </row>
-    <row r="37" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -12581,7 +12578,7 @@
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
     </row>
-    <row r="38" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -12619,9 +12616,9 @@
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C39" s="73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
@@ -12632,38 +12629,38 @@
       <c r="J39" s="73"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="N39" s="42"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="42"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
+      <c r="M39" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
-      <c r="AA39" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="42"/>
-      <c r="AJ39" s="42"/>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-    </row>
-    <row r="40" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AA39" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+    </row>
+    <row r="40" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C40" s="73"/>
       <c r="D40" s="73"/>
       <c r="E40" s="73"/>
@@ -12674,136 +12671,136 @@
       <c r="J40" s="73"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-    </row>
-    <row r="41" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C41" s="49" t="s">
+      <c r="AA40" s="44"/>
+      <c r="AB40" s="44"/>
+      <c r="AC40" s="44"/>
+      <c r="AD40" s="44"/>
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44"/>
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44"/>
+      <c r="AI40" s="44"/>
+      <c r="AJ40" s="44"/>
+      <c r="AK40" s="44"/>
+      <c r="AL40" s="44"/>
+    </row>
+    <row r="41" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C41" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="49" t="s">
+      <c r="D41" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="51" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="H41" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="49" t="s">
+      <c r="I41" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J41" s="49" t="s">
+      <c r="J41" s="51" t="s">
         <v>13</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="49" t="s">
+      <c r="M41" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="O41" s="49" t="s">
+      <c r="N41" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="P41" s="49"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="49"/>
-      <c r="S41" s="49" t="s">
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51" t="s">
         <v>4</v>
       </c>
       <c r="T41" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="U41" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="U41" s="72" t="s">
+      <c r="V41" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="V41" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="W41" s="49" t="s">
+      <c r="W41" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="X41" s="49" t="s">
+      <c r="X41" s="51" t="s">
         <v>13</v>
       </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
-      <c r="AA41" s="49" t="s">
+      <c r="AA41" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="AB41" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC41" s="49" t="s">
+      <c r="AB41" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="AD41" s="49"/>
-      <c r="AE41" s="49"/>
-      <c r="AF41" s="49"/>
-      <c r="AG41" s="49" t="s">
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51" t="s">
         <v>4</v>
       </c>
       <c r="AH41" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI41" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="AI41" s="72" t="s">
+      <c r="AJ41" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="AJ41" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK41" s="49" t="s">
+      <c r="AK41" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AL41" s="49" t="s">
+      <c r="AL41" s="51" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
+    <row r="42" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
       <c r="F42" s="72"/>
       <c r="G42" s="72"/>
       <c r="H42" s="72"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
       <c r="O42" s="2" t="s">
         <v>0</v>
       </c>
@@ -12816,16 +12813,16 @@
       <c r="R42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="49"/>
+      <c r="S42" s="51"/>
       <c r="T42" s="72"/>
       <c r="U42" s="72"/>
       <c r="V42" s="72"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="49"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
-      <c r="AA42" s="49"/>
-      <c r="AB42" s="49"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
       <c r="AC42" s="2" t="s">
         <v>0</v>
       </c>
@@ -12838,14 +12835,14 @@
       <c r="AF42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG42" s="49"/>
+      <c r="AG42" s="51"/>
       <c r="AH42" s="72"/>
       <c r="AI42" s="72"/>
       <c r="AJ42" s="72"/>
-      <c r="AK42" s="49"/>
-      <c r="AL42" s="49"/>
-    </row>
-    <row r="43" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+    </row>
+    <row r="43" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>1</v>
       </c>
@@ -12870,7 +12867,7 @@
       <c r="I43" s="7">
         <v>0.25</v>
       </c>
-      <c r="J43" s="39">
+      <c r="J43" s="40">
         <f>MAX(H43:I47)</f>
         <v>0.45</v>
       </c>
@@ -12880,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O43" s="23" t="s">
         <v>10</v>
@@ -12908,7 +12905,7 @@
       <c r="W43" s="7">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X43" s="39">
+      <c r="X43" s="40">
         <f>MAX(W43:W47)</f>
         <v>0.6</v>
       </c>
@@ -12918,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="AB43" s="74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC43" s="23" t="s">
         <v>10</v>
@@ -12948,12 +12945,12 @@
       <c r="AK43" s="7">
         <v>0.5</v>
       </c>
-      <c r="AL43" s="39">
+      <c r="AL43" s="40">
         <f>MAX(AK43:AK47)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <v>2</v>
       </c>
@@ -12976,7 +12973,7 @@
       <c r="I44" s="7">
         <v>0.3</v>
       </c>
-      <c r="J44" s="39"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="3">
@@ -13009,7 +13006,7 @@
       <c r="W44" s="7">
         <v>0.5</v>
       </c>
-      <c r="X44" s="39"/>
+      <c r="X44" s="40"/>
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="3">
@@ -13044,9 +13041,9 @@
       <c r="AK44" s="7">
         <v>0.45</v>
       </c>
-      <c r="AL44" s="39"/>
-    </row>
-    <row r="45" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL44" s="40"/>
+    </row>
+    <row r="45" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <v>3</v>
       </c>
@@ -13069,7 +13066,7 @@
       <c r="I45" s="7">
         <v>0.4</v>
       </c>
-      <c r="J45" s="39"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="3">
@@ -13102,7 +13099,7 @@
       <c r="W45" s="7">
         <v>0.6</v>
       </c>
-      <c r="X45" s="39"/>
+      <c r="X45" s="40"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="3">
@@ -13137,9 +13134,9 @@
       <c r="AK45" s="7">
         <v>0.45</v>
       </c>
-      <c r="AL45" s="39"/>
-    </row>
-    <row r="46" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL45" s="40"/>
+    </row>
+    <row r="46" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C46" s="3">
         <v>4</v>
       </c>
@@ -13162,7 +13159,7 @@
       <c r="I46" s="7">
         <v>0.45</v>
       </c>
-      <c r="J46" s="39"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="3">
@@ -13195,7 +13192,7 @@
       <c r="W46" s="7">
         <v>0.5</v>
       </c>
-      <c r="X46" s="39"/>
+      <c r="X46" s="40"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="3">
@@ -13230,9 +13227,9 @@
       <c r="AK46" s="7">
         <v>0.4</v>
       </c>
-      <c r="AL46" s="39"/>
-    </row>
-    <row r="47" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL46" s="40"/>
+    </row>
+    <row r="47" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C47" s="3">
         <v>5</v>
       </c>
@@ -13255,7 +13252,7 @@
       <c r="I47" s="7">
         <v>0.4</v>
       </c>
-      <c r="J47" s="39"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="3">
@@ -13288,7 +13285,7 @@
       <c r="W47" s="7">
         <v>0.4</v>
       </c>
-      <c r="X47" s="39"/>
+      <c r="X47" s="40"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="3">
@@ -13323,13 +13320,13 @@
       <c r="AK47" s="7">
         <v>0.4</v>
       </c>
-      <c r="AL47" s="39"/>
-    </row>
-    <row r="48" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL47" s="40"/>
+    </row>
+    <row r="48" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C48" s="3">
         <v>6</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="36" t="s">
         <v>1</v>
       </c>
       <c r="E48" s="3">
@@ -13350,7 +13347,7 @@
       <c r="I48" s="9">
         <v>0.2</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="36">
         <f>MAX(H48:I52)</f>
         <v>0.35</v>
       </c>
@@ -13386,7 +13383,7 @@
       <c r="W48" s="9">
         <v>0.45</v>
       </c>
-      <c r="X48" s="50">
+      <c r="X48" s="36">
         <f>MAX(W48:W52)</f>
         <v>0.5</v>
       </c>
@@ -13424,16 +13421,16 @@
       <c r="AK48" s="9">
         <v>0.4</v>
       </c>
-      <c r="AL48" s="50">
+      <c r="AL48" s="36">
         <f>MAX(AK48:AK52)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C49" s="3">
         <v>7</v>
       </c>
-      <c r="D49" s="50"/>
+      <c r="D49" s="36"/>
       <c r="E49" s="3">
         <v>2</v>
       </c>
@@ -13452,7 +13449,7 @@
       <c r="I49" s="9">
         <v>0.2</v>
       </c>
-      <c r="J49" s="50"/>
+      <c r="J49" s="36"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="3">
@@ -13485,7 +13482,7 @@
       <c r="W49" s="9">
         <v>0.4</v>
       </c>
-      <c r="X49" s="50"/>
+      <c r="X49" s="36"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="3">
@@ -13520,13 +13517,13 @@
       <c r="AK49" s="9">
         <v>0.4</v>
       </c>
-      <c r="AL49" s="50"/>
-    </row>
-    <row r="50" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL49" s="36"/>
+    </row>
+    <row r="50" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>8</v>
       </c>
-      <c r="D50" s="50"/>
+      <c r="D50" s="36"/>
       <c r="E50" s="3">
         <v>3</v>
       </c>
@@ -13545,7 +13542,7 @@
       <c r="I50" s="9">
         <v>0.35</v>
       </c>
-      <c r="J50" s="50"/>
+      <c r="J50" s="36"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="3">
@@ -13578,7 +13575,7 @@
       <c r="W50" s="9">
         <v>0.5</v>
       </c>
-      <c r="X50" s="50"/>
+      <c r="X50" s="36"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
       <c r="AA50" s="3">
@@ -13613,13 +13610,13 @@
       <c r="AK50" s="9">
         <v>0.5</v>
       </c>
-      <c r="AL50" s="50"/>
-    </row>
-    <row r="51" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL50" s="36"/>
+    </row>
+    <row r="51" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>9</v>
       </c>
-      <c r="D51" s="50"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="3">
         <v>4</v>
       </c>
@@ -13638,7 +13635,7 @@
       <c r="I51" s="9">
         <v>0.3</v>
       </c>
-      <c r="J51" s="50"/>
+      <c r="J51" s="36"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="3">
@@ -13671,7 +13668,7 @@
       <c r="W51" s="9">
         <v>0.4</v>
       </c>
-      <c r="X51" s="50"/>
+      <c r="X51" s="36"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
       <c r="AA51" s="3">
@@ -13706,13 +13703,13 @@
       <c r="AK51" s="9">
         <v>0.4</v>
       </c>
-      <c r="AL51" s="50"/>
-    </row>
-    <row r="52" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL51" s="36"/>
+    </row>
+    <row r="52" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>10</v>
       </c>
-      <c r="D52" s="50"/>
+      <c r="D52" s="36"/>
       <c r="E52" s="3">
         <v>5</v>
       </c>
@@ -13731,7 +13728,7 @@
       <c r="I52" s="9">
         <v>0.3</v>
       </c>
-      <c r="J52" s="50"/>
+      <c r="J52" s="36"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="3">
@@ -13764,7 +13761,7 @@
       <c r="W52" s="9">
         <v>0.45</v>
       </c>
-      <c r="X52" s="50"/>
+      <c r="X52" s="36"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
       <c r="AA52" s="3">
@@ -13799,13 +13796,13 @@
       <c r="AK52" s="9">
         <v>0.35</v>
       </c>
-      <c r="AL52" s="50"/>
-    </row>
-    <row r="53" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL52" s="36"/>
+    </row>
+    <row r="53" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <v>11</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="37" t="s">
         <v>2</v>
       </c>
       <c r="E53" s="3">
@@ -13826,7 +13823,7 @@
       <c r="I53" s="10">
         <v>0.6</v>
       </c>
-      <c r="J53" s="51">
+      <c r="J53" s="37">
         <f>MAX(H53:I57)</f>
         <v>0.6</v>
       </c>
@@ -13862,7 +13859,7 @@
       <c r="W53" s="10">
         <v>0.35</v>
       </c>
-      <c r="X53" s="51">
+      <c r="X53" s="37">
         <f>MAX(W53:W57)</f>
         <v>0.45</v>
       </c>
@@ -13900,16 +13897,16 @@
       <c r="AK53" s="10">
         <v>0.4</v>
       </c>
-      <c r="AL53" s="51">
+      <c r="AL53" s="37">
         <f>MAX(AK53:AK57)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="54" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <v>12</v>
       </c>
-      <c r="D54" s="51"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="3">
         <v>2</v>
       </c>
@@ -13928,7 +13925,7 @@
       <c r="I54" s="10">
         <v>0.35</v>
       </c>
-      <c r="J54" s="51"/>
+      <c r="J54" s="37"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="3">
@@ -13961,7 +13958,7 @@
       <c r="W54" s="10">
         <v>0.4</v>
       </c>
-      <c r="X54" s="51"/>
+      <c r="X54" s="37"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
       <c r="AA54" s="3">
@@ -13996,13 +13993,13 @@
       <c r="AK54" s="10">
         <v>0.4</v>
       </c>
-      <c r="AL54" s="51"/>
-    </row>
-    <row r="55" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL54" s="37"/>
+    </row>
+    <row r="55" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C55" s="3">
         <v>13</v>
       </c>
-      <c r="D55" s="51"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="3">
         <v>3</v>
       </c>
@@ -14021,7 +14018,7 @@
       <c r="I55" s="10">
         <v>0.45</v>
       </c>
-      <c r="J55" s="51"/>
+      <c r="J55" s="37"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="3">
@@ -14054,7 +14051,7 @@
       <c r="W55" s="10">
         <v>0.45</v>
       </c>
-      <c r="X55" s="51"/>
+      <c r="X55" s="37"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
       <c r="AA55" s="3">
@@ -14089,13 +14086,13 @@
       <c r="AK55" s="10">
         <v>0.35</v>
       </c>
-      <c r="AL55" s="51"/>
-    </row>
-    <row r="56" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL55" s="37"/>
+    </row>
+    <row r="56" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C56" s="3">
         <v>14</v>
       </c>
-      <c r="D56" s="51"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="3">
         <v>4</v>
       </c>
@@ -14114,7 +14111,7 @@
       <c r="I56" s="10">
         <v>0.4</v>
       </c>
-      <c r="J56" s="51"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="3">
@@ -14147,7 +14144,7 @@
       <c r="W56" s="10">
         <v>0.45</v>
       </c>
-      <c r="X56" s="51"/>
+      <c r="X56" s="37"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
       <c r="AA56" s="3">
@@ -14182,13 +14179,13 @@
       <c r="AK56" s="10">
         <v>0.4</v>
       </c>
-      <c r="AL56" s="51"/>
-    </row>
-    <row r="57" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL56" s="37"/>
+    </row>
+    <row r="57" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C57" s="3">
         <v>15</v>
       </c>
-      <c r="D57" s="51"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="3">
         <v>5</v>
       </c>
@@ -14207,7 +14204,7 @@
       <c r="I57" s="10">
         <v>0.45</v>
       </c>
-      <c r="J57" s="51"/>
+      <c r="J57" s="37"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="3">
@@ -14240,7 +14237,7 @@
       <c r="W57" s="10">
         <v>0.4</v>
       </c>
-      <c r="X57" s="51"/>
+      <c r="X57" s="37"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="3">
@@ -14275,13 +14272,13 @@
       <c r="AK57" s="10">
         <v>0.4</v>
       </c>
-      <c r="AL57" s="51"/>
-    </row>
-    <row r="58" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL57" s="37"/>
+    </row>
+    <row r="58" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C58" s="3">
         <v>16</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="3">
@@ -14302,7 +14299,7 @@
       <c r="I58" s="11">
         <v>0.25</v>
       </c>
-      <c r="J58" s="52">
+      <c r="J58" s="38">
         <f>MAX(H58:I62)</f>
         <v>0.3</v>
       </c>
@@ -14381,11 +14378,11 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="59" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C59" s="3">
         <v>17</v>
       </c>
-      <c r="D59" s="52"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="3">
         <v>2</v>
       </c>
@@ -14404,7 +14401,7 @@
       <c r="I59" s="11">
         <v>0.3</v>
       </c>
-      <c r="J59" s="52"/>
+      <c r="J59" s="38"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="3">
@@ -14474,11 +14471,11 @@
       </c>
       <c r="AL59" s="65"/>
     </row>
-    <row r="60" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C60" s="3">
         <v>18</v>
       </c>
-      <c r="D60" s="52"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="3">
         <v>3</v>
       </c>
@@ -14497,7 +14494,7 @@
       <c r="I60" s="11">
         <v>0.3</v>
       </c>
-      <c r="J60" s="52"/>
+      <c r="J60" s="38"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="3">
@@ -14567,11 +14564,11 @@
       </c>
       <c r="AL60" s="65"/>
     </row>
-    <row r="61" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C61" s="3">
         <v>19</v>
       </c>
-      <c r="D61" s="52"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="3">
         <v>4</v>
       </c>
@@ -14590,7 +14587,7 @@
       <c r="I61" s="11">
         <v>0.3</v>
       </c>
-      <c r="J61" s="52"/>
+      <c r="J61" s="38"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="3">
@@ -14660,11 +14657,11 @@
       </c>
       <c r="AL61" s="65"/>
     </row>
-    <row r="62" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C62" s="3">
         <v>20</v>
       </c>
-      <c r="D62" s="52"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="3">
         <v>5</v>
       </c>
@@ -14683,7 +14680,7 @@
       <c r="I62" s="11">
         <v>0.3</v>
       </c>
-      <c r="J62" s="52"/>
+      <c r="J62" s="38"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="3">
@@ -14753,7 +14750,7 @@
       </c>
       <c r="AL62" s="66"/>
     </row>
-    <row r="63" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+    <row r="63" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -14794,7 +14791,7 @@
       <c r="W63" s="11">
         <v>0.4</v>
       </c>
-      <c r="X63" s="52">
+      <c r="X63" s="38">
         <f>MAX(W63:W67)</f>
         <v>0.4</v>
       </c>
@@ -14804,7 +14801,7 @@
         <v>21</v>
       </c>
       <c r="AB63" s="74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC63" s="28" t="s">
         <v>10</v>
@@ -14836,12 +14833,12 @@
       <c r="AK63" s="22">
         <v>0.4</v>
       </c>
-      <c r="AL63" s="53">
+      <c r="AL63" s="39">
         <f>MAX(AK63:AK67)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="64" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+    <row r="64" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -14882,7 +14879,7 @@
       <c r="W64" s="11">
         <v>0.35</v>
       </c>
-      <c r="X64" s="52"/>
+      <c r="X64" s="38"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
       <c r="AA64" s="3">
@@ -14919,9 +14916,9 @@
       <c r="AK64" s="5">
         <v>0.4</v>
       </c>
-      <c r="AL64" s="53"/>
-    </row>
-    <row r="65" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+      <c r="AL64" s="39"/>
+    </row>
+    <row r="65" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -14962,7 +14959,7 @@
       <c r="W65" s="11">
         <v>0.4</v>
       </c>
-      <c r="X65" s="52"/>
+      <c r="X65" s="38"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="3">
@@ -14999,9 +14996,9 @@
       <c r="AK65" s="5">
         <v>0.4</v>
       </c>
-      <c r="AL65" s="53"/>
-    </row>
-    <row r="66" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL65" s="39"/>
+    </row>
+    <row r="66" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -15042,7 +15039,7 @@
       <c r="W66" s="11">
         <v>0.4</v>
       </c>
-      <c r="X66" s="52"/>
+      <c r="X66" s="38"/>
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="3">
@@ -15079,9 +15076,9 @@
       <c r="AK66" s="5">
         <v>0.4</v>
       </c>
-      <c r="AL66" s="53"/>
-    </row>
-    <row r="67" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL66" s="39"/>
+    </row>
+    <row r="67" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -15122,7 +15119,7 @@
       <c r="W67" s="11">
         <v>0.35</v>
       </c>
-      <c r="X67" s="52"/>
+      <c r="X67" s="38"/>
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="3">
@@ -15159,9 +15156,9 @@
       <c r="AK67" s="5">
         <v>0.4</v>
       </c>
-      <c r="AL67" s="53"/>
-    </row>
-    <row r="68" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="AL67" s="39"/>
+    </row>
+    <row r="68" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -15202,7 +15199,7 @@
       <c r="W68" s="5">
         <v>0.4</v>
       </c>
-      <c r="X68" s="53">
+      <c r="X68" s="39">
         <f>MAX(W68:W72)</f>
         <v>0.4</v>
       </c>
@@ -15221,7 +15218,7 @@
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
     </row>
-    <row r="69" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -15262,7 +15259,7 @@
       <c r="W69" s="5">
         <v>0.4</v>
       </c>
-      <c r="X69" s="53"/>
+      <c r="X69" s="39"/>
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
@@ -15278,7 +15275,7 @@
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
     </row>
-    <row r="70" spans="3:38" ht="21.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -15319,7 +15316,7 @@
       <c r="W70" s="5">
         <v>0.4</v>
       </c>
-      <c r="X70" s="53"/>
+      <c r="X70" s="39"/>
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
@@ -15335,7 +15332,7 @@
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
     </row>
-    <row r="71" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+    <row r="71" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -15376,7 +15373,7 @@
       <c r="W71" s="5">
         <v>0.4</v>
       </c>
-      <c r="X71" s="53"/>
+      <c r="X71" s="39"/>
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
@@ -15392,7 +15389,7 @@
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
     </row>
-    <row r="72" spans="3:38" ht="21.75" x14ac:dyDescent="0.6">
+    <row r="72" spans="3:38" ht="20.399999999999999" x14ac:dyDescent="0.7">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -15433,7 +15430,7 @@
       <c r="W72" s="5">
         <v>0.35</v>
       </c>
-      <c r="X72" s="53"/>
+      <c r="X72" s="39"/>
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
